--- a/Outils/CompetencesCPGE2021.xlsx
+++ b/Outils/CompetencesCPGE2021.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ExercicesCompetences\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ExercicesCompetences\Outils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6FF9F2-17FC-409B-80DB-0788815B2829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF6231D-79A0-4C9F-9FDD-6861D3875B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,12 @@
     <sheet name="MPSI-MP" sheetId="43" r:id="rId5"/>
     <sheet name="Couleurs" sheetId="33" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Sup: 1 - Spé: 0" guid="{D835D448-F561-4486-92EF-D573DDD26CB6}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="6"/>
+    <customWorkbookView name="Sup: 1 - Spé: 1" guid="{18A83F5A-948D-4025-A538-8420B224B464}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="10"/>
+    <customWorkbookView name="Sup: 0 - Spé: 1" guid="{8714E0F1-CCCA-4822-93D0-FC99B665005C}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="10"/>
     <customWorkbookView name="Sup: 0 - Spé: 0" guid="{D5B58388-A8C3-42C5-A2AF-B256E853E553}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="10"/>
-    <customWorkbookView name="Sup: 0 - Spé: 1" guid="{8714E0F1-CCCA-4822-93D0-FC99B665005C}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="10"/>
-    <customWorkbookView name="Sup: 1 - Spé: 1" guid="{18A83F5A-948D-4025-A538-8420B224B464}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="10"/>
-    <customWorkbookView name="Sup: 1 - Spé: 0" guid="{D835D448-F561-4486-92EF-D573DDD26CB6}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="6"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2095,7 +2095,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2293,31 +2293,31 @@
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2380,10 +2380,10 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2397,9 +2397,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2450,6 +2447,24 @@
     <xf numFmtId="0" fontId="22" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2464,24 +2479,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2854,48 +2851,48 @@
     <col min="3" max="3" width="82.7265625" style="17" customWidth="1"/>
     <col min="4" max="4" width="5.26953125" style="48" customWidth="1"/>
     <col min="5" max="5" width="3.7265625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="6.26953125" style="104" customWidth="1"/>
+    <col min="6" max="6" width="6.26953125" style="103" customWidth="1"/>
     <col min="7" max="7" width="62.7265625" style="1" customWidth="1"/>
     <col min="8" max="8" width="82.7265625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.26953125" style="103" customWidth="1"/>
+    <col min="9" max="9" width="5.26953125" style="102" customWidth="1"/>
     <col min="10" max="10" width="3.7265625" style="17" customWidth="1"/>
-    <col min="11" max="11" width="6.26953125" style="104" customWidth="1"/>
+    <col min="11" max="11" width="6.26953125" style="103" customWidth="1"/>
     <col min="12" max="12" width="62.7265625" style="1" customWidth="1"/>
     <col min="13" max="13" width="82.7265625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="5.26953125" style="103" customWidth="1"/>
+    <col min="14" max="14" width="5.26953125" style="102" customWidth="1"/>
     <col min="15" max="15" width="3.7265625" style="17" customWidth="1"/>
-    <col min="16" max="16" width="6.26953125" style="104" customWidth="1"/>
+    <col min="16" max="16" width="6.26953125" style="103" customWidth="1"/>
     <col min="17" max="17" width="62.7265625" style="1" customWidth="1"/>
     <col min="18" max="18" width="82.7265625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="5.26953125" style="103" customWidth="1"/>
+    <col min="19" max="19" width="5.26953125" style="102" customWidth="1"/>
     <col min="20" max="16384" width="11.453125" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="18" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="122" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="F1" s="130" t="s">
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="F1" s="122" t="s">
         <v>166</v>
       </c>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="K1" s="130" t="s">
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="K1" s="122" t="s">
         <v>421</v>
       </c>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="130"/>
-      <c r="P1" s="130" t="s">
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="122"/>
+      <c r="P1" s="122" t="s">
         <v>167</v>
       </c>
-      <c r="Q1" s="130"/>
-      <c r="R1" s="130"/>
-      <c r="S1" s="130"/>
+      <c r="Q1" s="122"/>
+      <c r="R1" s="122"/>
+      <c r="S1" s="122"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="F2" s="58"/>
@@ -3036,7 +3033,7 @@
       <c r="B6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="127" t="s">
+      <c r="C6" s="119" t="s">
         <v>329</v>
       </c>
       <c r="D6" s="50" t="s">
@@ -3048,7 +3045,7 @@
       <c r="G6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="H6" s="127" t="s">
+      <c r="H6" s="119" t="s">
         <v>329</v>
       </c>
       <c r="I6" s="50" t="s">
@@ -3060,7 +3057,7 @@
       <c r="L6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="M6" s="127" t="s">
+      <c r="M6" s="119" t="s">
         <v>426</v>
       </c>
       <c r="N6" s="50" t="s">
@@ -3072,7 +3069,7 @@
       <c r="Q6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="R6" s="127" t="s">
+      <c r="R6" s="119" t="s">
         <v>329</v>
       </c>
       <c r="S6" s="50" t="s">
@@ -3086,7 +3083,7 @@
       <c r="B7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="128"/>
+      <c r="C7" s="120"/>
       <c r="D7" s="50" t="s">
         <v>169</v>
       </c>
@@ -3096,7 +3093,7 @@
       <c r="G7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="H7" s="128"/>
+      <c r="H7" s="120"/>
       <c r="I7" s="50" t="s">
         <v>169</v>
       </c>
@@ -3106,7 +3103,7 @@
       <c r="L7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="M7" s="128"/>
+      <c r="M7" s="120"/>
       <c r="N7" s="50" t="s">
         <v>169</v>
       </c>
@@ -3116,7 +3113,7 @@
       <c r="Q7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="R7" s="128"/>
+      <c r="R7" s="120"/>
       <c r="S7" s="50" t="s">
         <v>169</v>
       </c>
@@ -3128,7 +3125,7 @@
       <c r="B8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="128"/>
+      <c r="C8" s="120"/>
       <c r="D8" s="50" t="s">
         <v>169</v>
       </c>
@@ -3138,7 +3135,7 @@
       <c r="G8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="H8" s="128"/>
+      <c r="H8" s="120"/>
       <c r="I8" s="50" t="s">
         <v>169</v>
       </c>
@@ -3148,7 +3145,7 @@
       <c r="L8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="M8" s="128"/>
+      <c r="M8" s="120"/>
       <c r="N8" s="50" t="s">
         <v>169</v>
       </c>
@@ -3158,7 +3155,7 @@
       <c r="Q8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="R8" s="128"/>
+      <c r="R8" s="120"/>
       <c r="S8" s="50" t="s">
         <v>169</v>
       </c>
@@ -3170,7 +3167,7 @@
       <c r="B9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="129"/>
+      <c r="C9" s="121"/>
       <c r="D9" s="50" t="s">
         <v>169</v>
       </c>
@@ -3180,7 +3177,7 @@
       <c r="G9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="H9" s="129"/>
+      <c r="H9" s="121"/>
       <c r="I9" s="50" t="s">
         <v>169</v>
       </c>
@@ -3190,7 +3187,7 @@
       <c r="L9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="M9" s="129"/>
+      <c r="M9" s="121"/>
       <c r="N9" s="50" t="s">
         <v>169</v>
       </c>
@@ -3200,7 +3197,7 @@
       <c r="Q9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="R9" s="129"/>
+      <c r="R9" s="121"/>
       <c r="S9" s="50" t="s">
         <v>169</v>
       </c>
@@ -3246,7 +3243,7 @@
       <c r="B11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="127" t="s">
+      <c r="C11" s="119" t="s">
         <v>330</v>
       </c>
       <c r="D11" s="50" t="s">
@@ -3258,7 +3255,7 @@
       <c r="G11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="H11" s="127" t="s">
+      <c r="H11" s="119" t="s">
         <v>330</v>
       </c>
       <c r="I11" s="50" t="s">
@@ -3270,7 +3267,7 @@
       <c r="L11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="M11" s="127" t="s">
+      <c r="M11" s="119" t="s">
         <v>330</v>
       </c>
       <c r="N11" s="50" t="s">
@@ -3282,7 +3279,7 @@
       <c r="Q11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="R11" s="127" t="s">
+      <c r="R11" s="119" t="s">
         <v>330</v>
       </c>
       <c r="S11" s="50" t="s">
@@ -3296,7 +3293,7 @@
       <c r="B12" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C12" s="129"/>
+      <c r="C12" s="121"/>
       <c r="D12" s="50" t="s">
         <v>175</v>
       </c>
@@ -3306,7 +3303,7 @@
       <c r="G12" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="H12" s="129"/>
+      <c r="H12" s="121"/>
       <c r="I12" s="50" t="s">
         <v>175</v>
       </c>
@@ -3316,7 +3313,7 @@
       <c r="L12" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="M12" s="129"/>
+      <c r="M12" s="121"/>
       <c r="N12" s="50" t="s">
         <v>175</v>
       </c>
@@ -3326,7 +3323,7 @@
       <c r="Q12" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="R12" s="129"/>
+      <c r="R12" s="121"/>
       <c r="S12" s="50"/>
     </row>
     <row r="13" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
@@ -3420,7 +3417,7 @@
       <c r="B15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="127" t="s">
+      <c r="C15" s="119" t="s">
         <v>331</v>
       </c>
       <c r="D15" s="50" t="s">
@@ -3432,7 +3429,7 @@
       <c r="G15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="H15" s="127" t="s">
+      <c r="H15" s="119" t="s">
         <v>331</v>
       </c>
       <c r="I15" s="50" t="s">
@@ -3444,7 +3441,7 @@
       <c r="L15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="M15" s="127" t="s">
+      <c r="M15" s="119" t="s">
         <v>331</v>
       </c>
       <c r="N15" s="50" t="s">
@@ -3456,7 +3453,7 @@
       <c r="Q15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="R15" s="127" t="s">
+      <c r="R15" s="119" t="s">
         <v>331</v>
       </c>
       <c r="S15" s="50" t="s">
@@ -3470,7 +3467,7 @@
       <c r="B16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C16" s="128"/>
+      <c r="C16" s="120"/>
       <c r="D16" s="50" t="s">
         <v>181</v>
       </c>
@@ -3480,7 +3477,7 @@
       <c r="G16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="H16" s="128"/>
+      <c r="H16" s="120"/>
       <c r="I16" s="50" t="s">
         <v>181</v>
       </c>
@@ -3490,7 +3487,7 @@
       <c r="L16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="M16" s="128"/>
+      <c r="M16" s="120"/>
       <c r="N16" s="50" t="s">
         <v>181</v>
       </c>
@@ -3500,7 +3497,7 @@
       <c r="Q16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="R16" s="128"/>
+      <c r="R16" s="120"/>
       <c r="S16" s="50" t="s">
         <v>181</v>
       </c>
@@ -3512,7 +3509,7 @@
       <c r="B17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="128"/>
+      <c r="C17" s="120"/>
       <c r="D17" s="50" t="s">
         <v>169</v>
       </c>
@@ -3522,7 +3519,7 @@
       <c r="G17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="H17" s="128"/>
+      <c r="H17" s="120"/>
       <c r="I17" s="50" t="s">
         <v>169</v>
       </c>
@@ -3532,7 +3529,7 @@
       <c r="L17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="M17" s="128"/>
+      <c r="M17" s="120"/>
       <c r="N17" s="50" t="s">
         <v>169</v>
       </c>
@@ -3542,7 +3539,7 @@
       <c r="Q17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="R17" s="128"/>
+      <c r="R17" s="120"/>
       <c r="S17" s="50" t="s">
         <v>169</v>
       </c>
@@ -3554,7 +3551,7 @@
       <c r="B18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="129"/>
+      <c r="C18" s="121"/>
       <c r="D18" s="50" t="s">
         <v>169</v>
       </c>
@@ -3564,7 +3561,7 @@
       <c r="G18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="H18" s="129"/>
+      <c r="H18" s="121"/>
       <c r="I18" s="50" t="s">
         <v>169</v>
       </c>
@@ -3574,7 +3571,7 @@
       <c r="L18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="M18" s="129"/>
+      <c r="M18" s="121"/>
       <c r="N18" s="50" t="s">
         <v>169</v>
       </c>
@@ -3584,7 +3581,7 @@
       <c r="Q18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="R18" s="129"/>
+      <c r="R18" s="121"/>
       <c r="S18" s="50" t="s">
         <v>169</v>
       </c>
@@ -3668,7 +3665,7 @@
       <c r="N20" s="50" t="s">
         <v>175</v>
       </c>
-      <c r="P20" s="105" t="s">
+      <c r="P20" s="104" t="s">
         <v>12</v>
       </c>
       <c r="Q20" s="10" t="s">
@@ -3710,7 +3707,7 @@
       <c r="L21"/>
       <c r="M21"/>
       <c r="N21"/>
-      <c r="P21" s="105" t="s">
+      <c r="P21" s="104" t="s">
         <v>13</v>
       </c>
       <c r="Q21" s="10" t="s">
@@ -3760,7 +3757,7 @@
       <c r="N22" s="50" t="s">
         <v>185</v>
       </c>
-      <c r="P22" s="113" t="s">
+      <c r="P22" s="112" t="s">
         <v>14</v>
       </c>
       <c r="Q22" s="10" t="s">
@@ -3780,7 +3777,7 @@
       <c r="B23" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="C23" s="127" t="s">
+      <c r="C23" s="119" t="s">
         <v>336</v>
       </c>
       <c r="D23" s="50" t="s">
@@ -3800,7 +3797,7 @@
       <c r="B24" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C24" s="129"/>
+      <c r="C24" s="121"/>
       <c r="D24" s="50" t="s">
         <v>175</v>
       </c>
@@ -3832,7 +3829,7 @@
       <c r="D25" s="50" t="s">
         <v>175</v>
       </c>
-      <c r="F25" s="105" t="s">
+      <c r="F25" s="104" t="s">
         <v>16</v>
       </c>
       <c r="G25" s="10" t="s">
@@ -3844,7 +3841,7 @@
       <c r="I25" s="50" t="s">
         <v>175</v>
       </c>
-      <c r="K25" s="105" t="s">
+      <c r="K25" s="104" t="s">
         <v>15</v>
       </c>
       <c r="L25" s="10" t="s">
@@ -3857,7 +3854,7 @@
         <v>175</v>
       </c>
       <c r="O25"/>
-      <c r="P25" s="113" t="s">
+      <c r="P25" s="112" t="s">
         <v>15</v>
       </c>
       <c r="Q25" s="10" t="s">
@@ -3883,7 +3880,7 @@
       <c r="D26" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="F26" s="105" t="s">
+      <c r="F26" s="104" t="s">
         <v>17</v>
       </c>
       <c r="G26" s="10" t="s">
@@ -3895,7 +3892,7 @@
       <c r="I26" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="K26" s="105" t="s">
+      <c r="K26" s="104" t="s">
         <v>16</v>
       </c>
       <c r="L26" s="10" t="s">
@@ -3907,7 +3904,7 @@
       <c r="N26" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="P26" s="113" t="s">
+      <c r="P26" s="112" t="s">
         <v>16</v>
       </c>
       <c r="Q26" s="10" t="s">
@@ -3961,7 +3958,7 @@
       <c r="B28" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C28" s="127" t="s">
+      <c r="C28" s="119" t="s">
         <v>339</v>
       </c>
       <c r="D28" s="50" t="s">
@@ -3973,7 +3970,7 @@
       <c r="G28" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="H28" s="127" t="s">
+      <c r="H28" s="119" t="s">
         <v>339</v>
       </c>
       <c r="I28" s="50" t="s">
@@ -3985,7 +3982,7 @@
       <c r="L28" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="M28" s="127" t="s">
+      <c r="M28" s="119" t="s">
         <v>339</v>
       </c>
       <c r="N28" s="50" t="s">
@@ -3997,7 +3994,7 @@
       <c r="Q28" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="R28" s="127" t="s">
+      <c r="R28" s="119" t="s">
         <v>339</v>
       </c>
       <c r="S28" s="50" t="s">
@@ -4011,7 +4008,7 @@
       <c r="B29" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C29" s="128"/>
+      <c r="C29" s="120"/>
       <c r="D29" s="50" t="s">
         <v>181</v>
       </c>
@@ -4021,7 +4018,7 @@
       <c r="G29" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="H29" s="128"/>
+      <c r="H29" s="120"/>
       <c r="I29" s="50" t="s">
         <v>181</v>
       </c>
@@ -4031,7 +4028,7 @@
       <c r="L29" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="M29" s="128"/>
+      <c r="M29" s="120"/>
       <c r="N29" s="50" t="s">
         <v>181</v>
       </c>
@@ -4041,7 +4038,7 @@
       <c r="Q29" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="R29" s="128"/>
+      <c r="R29" s="120"/>
       <c r="S29" s="50" t="s">
         <v>181</v>
       </c>
@@ -4053,7 +4050,7 @@
       <c r="B30" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C30" s="128"/>
+      <c r="C30" s="120"/>
       <c r="D30" s="50" t="s">
         <v>181</v>
       </c>
@@ -4063,7 +4060,7 @@
       <c r="G30" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="H30" s="128"/>
+      <c r="H30" s="120"/>
       <c r="I30" s="50" t="s">
         <v>181</v>
       </c>
@@ -4073,7 +4070,7 @@
       <c r="L30" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="M30" s="128"/>
+      <c r="M30" s="120"/>
       <c r="N30" s="50" t="s">
         <v>181</v>
       </c>
@@ -4083,7 +4080,7 @@
       <c r="Q30" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="R30" s="128"/>
+      <c r="R30" s="120"/>
       <c r="S30" s="50" t="s">
         <v>181</v>
       </c>
@@ -4095,7 +4092,7 @@
       <c r="B31" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C31" s="129"/>
+      <c r="C31" s="121"/>
       <c r="D31" s="50" t="s">
         <v>181</v>
       </c>
@@ -4105,7 +4102,7 @@
       <c r="G31" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="H31" s="129"/>
+      <c r="H31" s="121"/>
       <c r="I31" s="50" t="s">
         <v>181</v>
       </c>
@@ -4115,7 +4112,7 @@
       <c r="L31" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="M31" s="129"/>
+      <c r="M31" s="121"/>
       <c r="N31" s="50" t="s">
         <v>181</v>
       </c>
@@ -4125,7 +4122,7 @@
       <c r="Q31" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="R31" s="129"/>
+      <c r="R31" s="121"/>
       <c r="S31" s="50" t="s">
         <v>181</v>
       </c>
@@ -4153,7 +4150,7 @@
       <c r="B33" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C33" s="127" t="s">
+      <c r="C33" s="119" t="s">
         <v>340</v>
       </c>
       <c r="D33" s="50" t="s">
@@ -4172,7 +4169,7 @@
       <c r="B34" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C34" s="128"/>
+      <c r="C34" s="120"/>
       <c r="D34" s="50" t="s">
         <v>185</v>
       </c>
@@ -4198,7 +4195,7 @@
       <c r="B35" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="C35" s="129"/>
+      <c r="C35" s="121"/>
       <c r="D35" s="50" t="s">
         <v>185</v>
       </c>
@@ -4224,7 +4221,7 @@
       <c r="B36" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C36" s="127" t="s">
+      <c r="C36" s="119" t="s">
         <v>341</v>
       </c>
       <c r="D36" s="50" t="s">
@@ -4252,7 +4249,7 @@
       <c r="B37" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="C37" s="128"/>
+      <c r="C37" s="120"/>
       <c r="D37" s="50" t="s">
         <v>175</v>
       </c>
@@ -4278,7 +4275,7 @@
       <c r="B38" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C38" s="129"/>
+      <c r="C38" s="121"/>
       <c r="D38" s="50" t="s">
         <v>175</v>
       </c>
@@ -4393,7 +4390,7 @@
       <c r="B42" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C42" s="120" t="s">
+      <c r="C42" s="125" t="s">
         <v>205</v>
       </c>
       <c r="D42" s="51" t="s">
@@ -4405,7 +4402,7 @@
       <c r="G42" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="H42" s="120" t="s">
+      <c r="H42" s="125" t="s">
         <v>205</v>
       </c>
       <c r="I42" s="51" t="s">
@@ -4417,7 +4414,7 @@
       <c r="L42" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="M42" s="120" t="s">
+      <c r="M42" s="125" t="s">
         <v>205</v>
       </c>
       <c r="N42" s="51" t="s">
@@ -4429,7 +4426,7 @@
       <c r="Q42" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="R42" s="120" t="s">
+      <c r="R42" s="125" t="s">
         <v>205</v>
       </c>
       <c r="S42" s="51" t="s">
@@ -4443,7 +4440,7 @@
       <c r="B43" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C43" s="121"/>
+      <c r="C43" s="126"/>
       <c r="D43" s="51" t="s">
         <v>181</v>
       </c>
@@ -4453,7 +4450,7 @@
       <c r="G43" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="H43" s="121"/>
+      <c r="H43" s="126"/>
       <c r="I43" s="51" t="s">
         <v>181</v>
       </c>
@@ -4463,7 +4460,7 @@
       <c r="L43" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="M43" s="122"/>
+      <c r="M43" s="127"/>
       <c r="N43" s="51" t="s">
         <v>181</v>
       </c>
@@ -4473,7 +4470,7 @@
       <c r="Q43" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="R43" s="121"/>
+      <c r="R43" s="126"/>
       <c r="S43" s="51" t="s">
         <v>181</v>
       </c>
@@ -4485,7 +4482,7 @@
       <c r="B44" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C44" s="121"/>
+      <c r="C44" s="126"/>
       <c r="D44" s="51" t="s">
         <v>181</v>
       </c>
@@ -4495,7 +4492,7 @@
       <c r="G44" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="H44" s="121"/>
+      <c r="H44" s="126"/>
       <c r="I44" s="51" t="s">
         <v>181</v>
       </c>
@@ -4515,7 +4512,7 @@
       <c r="Q44" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="R44" s="121"/>
+      <c r="R44" s="126"/>
       <c r="S44" s="51" t="s">
         <v>181</v>
       </c>
@@ -4527,7 +4524,7 @@
       <c r="B45" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="C45" s="122"/>
+      <c r="C45" s="127"/>
       <c r="D45" s="51" t="s">
         <v>181</v>
       </c>
@@ -4537,7 +4534,7 @@
       <c r="G45" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="H45" s="122"/>
+      <c r="H45" s="127"/>
       <c r="I45" s="51" t="s">
         <v>181</v>
       </c>
@@ -4557,7 +4554,7 @@
       <c r="Q45" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="R45" s="122"/>
+      <c r="R45" s="127"/>
       <c r="S45" s="51" t="s">
         <v>181</v>
       </c>
@@ -4653,7 +4650,7 @@
       <c r="B48" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C48" s="120" t="s">
+      <c r="C48" s="125" t="s">
         <v>343</v>
       </c>
       <c r="D48" s="51" t="s">
@@ -4665,7 +4662,7 @@
       <c r="G48" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="H48" s="120" t="s">
+      <c r="H48" s="125" t="s">
         <v>343</v>
       </c>
       <c r="I48" s="51" t="s">
@@ -4677,7 +4674,7 @@
       <c r="L48" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="M48" s="120" t="s">
+      <c r="M48" s="125" t="s">
         <v>343</v>
       </c>
       <c r="N48" s="51" t="s">
@@ -4689,7 +4686,7 @@
       <c r="Q48" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="R48" s="120" t="s">
+      <c r="R48" s="125" t="s">
         <v>343</v>
       </c>
       <c r="S48" s="51" t="s">
@@ -4703,7 +4700,7 @@
       <c r="B49" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C49" s="122"/>
+      <c r="C49" s="127"/>
       <c r="D49" s="51" t="s">
         <v>185</v>
       </c>
@@ -4713,7 +4710,7 @@
       <c r="G49" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="H49" s="122"/>
+      <c r="H49" s="127"/>
       <c r="I49" s="51" t="s">
         <v>185</v>
       </c>
@@ -4723,7 +4720,7 @@
       <c r="L49" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="M49" s="122"/>
+      <c r="M49" s="127"/>
       <c r="N49" s="51" t="s">
         <v>185</v>
       </c>
@@ -4733,7 +4730,7 @@
       <c r="Q49" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="R49" s="122"/>
+      <c r="R49" s="127"/>
       <c r="S49" s="51" t="s">
         <v>185</v>
       </c>
@@ -5048,7 +5045,7 @@
       <c r="I56" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="K56" s="106" t="s">
+      <c r="K56" s="105" t="s">
         <v>42</v>
       </c>
       <c r="L56" s="11" t="s">
@@ -5060,7 +5057,7 @@
       <c r="N56" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="P56" s="114" t="s">
+      <c r="P56" s="113" t="s">
         <v>42</v>
       </c>
       <c r="Q56" s="11" t="s">
@@ -5095,7 +5092,7 @@
       <c r="M57"/>
       <c r="N57"/>
       <c r="O57"/>
-      <c r="P57" s="115"/>
+      <c r="P57" s="114"/>
       <c r="Q57"/>
       <c r="R57"/>
       <c r="S57"/>
@@ -5107,43 +5104,43 @@
       <c r="B58" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C58" s="120" t="s">
+      <c r="C58" s="125" t="s">
         <v>413</v>
       </c>
       <c r="D58" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="F58" s="106" t="s">
+      <c r="F58" s="105" t="s">
         <v>44</v>
       </c>
       <c r="G58" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="H58" s="120" t="s">
+      <c r="H58" s="125" t="s">
         <v>413</v>
       </c>
       <c r="I58" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="K58" s="106" t="s">
+      <c r="K58" s="105" t="s">
         <v>43</v>
       </c>
       <c r="L58" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="M58" s="120" t="s">
+      <c r="M58" s="125" t="s">
         <v>413</v>
       </c>
       <c r="N58" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="P58" s="114" t="s">
+      <c r="P58" s="113" t="s">
         <v>43</v>
       </c>
       <c r="Q58" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="R58" s="120" t="s">
+      <c r="R58" s="125" t="s">
         <v>413</v>
       </c>
       <c r="S58" s="51" t="s">
@@ -5157,37 +5154,37 @@
       <c r="B59" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="C59" s="122"/>
+      <c r="C59" s="127"/>
       <c r="D59" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="F59" s="106" t="s">
+      <c r="F59" s="105" t="s">
         <v>45</v>
       </c>
       <c r="G59" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="H59" s="122"/>
+      <c r="H59" s="127"/>
       <c r="I59" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="K59" s="106" t="s">
+      <c r="K59" s="105" t="s">
         <v>44</v>
       </c>
       <c r="L59" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="M59" s="122"/>
+      <c r="M59" s="127"/>
       <c r="N59" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="P59" s="114" t="s">
+      <c r="P59" s="113" t="s">
         <v>44</v>
       </c>
       <c r="Q59" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="R59" s="122"/>
+      <c r="R59" s="127"/>
       <c r="S59" s="51" t="s">
         <v>169</v>
       </c>
@@ -5205,7 +5202,7 @@
       <c r="D60" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="F60" s="106" t="s">
+      <c r="F60" s="105" t="s">
         <v>46</v>
       </c>
       <c r="G60" s="11" t="s">
@@ -5217,7 +5214,7 @@
       <c r="I60" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="K60" s="106" t="s">
+      <c r="K60" s="105" t="s">
         <v>45</v>
       </c>
       <c r="L60" s="11" t="s">
@@ -5229,7 +5226,7 @@
       <c r="N60" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="P60" s="114" t="s">
+      <c r="P60" s="113" t="s">
         <v>45</v>
       </c>
       <c r="Q60" s="11" t="s">
@@ -5259,7 +5256,7 @@
       <c r="G61"/>
       <c r="H61"/>
       <c r="I61"/>
-      <c r="P61" s="116"/>
+      <c r="P61" s="115"/>
     </row>
     <row r="62" spans="1:19" s="18" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A62" s="60" t="s">
@@ -5274,7 +5271,7 @@
       <c r="D62" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="F62" s="106" t="s">
+      <c r="F62" s="105" t="s">
         <v>47</v>
       </c>
       <c r="G62" s="11" t="s">
@@ -5286,7 +5283,7 @@
       <c r="I62" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="K62" s="106" t="s">
+      <c r="K62" s="105" t="s">
         <v>46</v>
       </c>
       <c r="L62" s="11" t="s">
@@ -5298,7 +5295,7 @@
       <c r="N62" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="P62" s="114" t="s">
+      <c r="P62" s="113" t="s">
         <v>46</v>
       </c>
       <c r="Q62" s="11" t="s">
@@ -5324,7 +5321,7 @@
       <c r="D63" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="F63" s="106" t="s">
+      <c r="F63" s="105" t="s">
         <v>48</v>
       </c>
       <c r="G63" s="11" t="s">
@@ -5336,7 +5333,7 @@
       <c r="I63" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="K63" s="106" t="s">
+      <c r="K63" s="105" t="s">
         <v>47</v>
       </c>
       <c r="L63" s="11" t="s">
@@ -5348,7 +5345,7 @@
       <c r="N63" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="P63" s="114" t="s">
+      <c r="P63" s="113" t="s">
         <v>47</v>
       </c>
       <c r="Q63" s="11" t="s">
@@ -5374,7 +5371,7 @@
       <c r="D64" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="F64" s="106" t="s">
+      <c r="F64" s="105" t="s">
         <v>49</v>
       </c>
       <c r="G64" s="11" t="s">
@@ -5386,7 +5383,7 @@
       <c r="I64" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="K64" s="106" t="s">
+      <c r="K64" s="105" t="s">
         <v>48</v>
       </c>
       <c r="L64" s="11" t="s">
@@ -5443,7 +5440,7 @@
       <c r="D66" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="F66" s="106" t="s">
+      <c r="F66" s="105" t="s">
         <v>50</v>
       </c>
       <c r="G66" s="11" t="s">
@@ -5455,7 +5452,7 @@
       <c r="I66" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="K66" s="106" t="s">
+      <c r="K66" s="105" t="s">
         <v>49</v>
       </c>
       <c r="L66" s="11" t="s">
@@ -5467,7 +5464,7 @@
       <c r="N66" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="P66" s="106" t="s">
+      <c r="P66" s="105" t="s">
         <v>48</v>
       </c>
       <c r="Q66" s="11" t="s">
@@ -6512,7 +6509,7 @@
       <c r="B92" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="C92" s="123" t="s">
+      <c r="C92" s="128" t="s">
         <v>427</v>
       </c>
       <c r="D92" s="52" t="s">
@@ -6524,7 +6521,7 @@
       <c r="G92" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="H92" s="123" t="s">
+      <c r="H92" s="128" t="s">
         <v>427</v>
       </c>
       <c r="I92" s="52" t="s">
@@ -6536,7 +6533,7 @@
       <c r="L92" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="M92" s="123" t="s">
+      <c r="M92" s="128" t="s">
         <v>427</v>
       </c>
       <c r="N92" s="52" t="s">
@@ -6548,7 +6545,7 @@
       <c r="Q92" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="R92" s="123" t="s">
+      <c r="R92" s="128" t="s">
         <v>427</v>
       </c>
       <c r="S92" s="52" t="s">
@@ -6562,7 +6559,7 @@
       <c r="B93" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="C93" s="124"/>
+      <c r="C93" s="129"/>
       <c r="D93" s="52" t="s">
         <v>185</v>
       </c>
@@ -6572,7 +6569,7 @@
       <c r="G93" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="H93" s="124"/>
+      <c r="H93" s="129"/>
       <c r="I93" s="52" t="s">
         <v>185</v>
       </c>
@@ -6582,7 +6579,7 @@
       <c r="L93" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="M93" s="124"/>
+      <c r="M93" s="129"/>
       <c r="N93" s="52" t="s">
         <v>185</v>
       </c>
@@ -6592,7 +6589,7 @@
       <c r="Q93" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="R93" s="124"/>
+      <c r="R93" s="129"/>
       <c r="S93" s="52" t="s">
         <v>185</v>
       </c>
@@ -6838,17 +6835,17 @@
     <row r="100" spans="1:19" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="F100" s="58"/>
       <c r="G100" s="18"/>
-      <c r="H100" s="102"/>
+      <c r="H100" s="74"/>
       <c r="I100" s="49"/>
       <c r="J100" s="18"/>
       <c r="K100" s="58"/>
       <c r="L100" s="18"/>
-      <c r="M100" s="102"/>
+      <c r="M100" s="74"/>
       <c r="N100" s="49"/>
       <c r="O100" s="18"/>
       <c r="P100" s="58"/>
       <c r="Q100" s="18"/>
-      <c r="R100" s="102"/>
+      <c r="R100" s="74"/>
       <c r="S100" s="49"/>
     </row>
     <row r="101" spans="1:19" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -7142,7 +7139,7 @@
       <c r="N108" s="53" t="s">
         <v>175</v>
       </c>
-      <c r="P108" s="111" t="s">
+      <c r="P108" s="110" t="s">
         <v>83</v>
       </c>
       <c r="Q108" s="13" t="s">
@@ -7185,7 +7182,7 @@
       <c r="N109" s="53" t="s">
         <v>175</v>
       </c>
-      <c r="P109" s="111" t="s">
+      <c r="P109" s="110" t="s">
         <v>84</v>
       </c>
       <c r="Q109" s="13" t="s">
@@ -7227,7 +7224,7 @@
       <c r="N110" s="53" t="s">
         <v>175</v>
       </c>
-      <c r="P110" s="111" t="s">
+      <c r="P110" s="110" t="s">
         <v>85</v>
       </c>
       <c r="Q110" s="13" t="s">
@@ -7269,7 +7266,7 @@
       <c r="N111" s="53" t="s">
         <v>175</v>
       </c>
-      <c r="P111" s="111" t="s">
+      <c r="P111" s="110" t="s">
         <v>86</v>
       </c>
       <c r="Q111" s="13" t="s">
@@ -7487,7 +7484,7 @@
       <c r="B117" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="C117" s="125" t="s">
+      <c r="C117" s="123" t="s">
         <v>273</v>
       </c>
       <c r="D117" s="53" t="s">
@@ -7499,7 +7496,7 @@
       <c r="G117" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="H117" s="125" t="s">
+      <c r="H117" s="123" t="s">
         <v>273</v>
       </c>
       <c r="I117" s="53" t="s">
@@ -7511,7 +7508,7 @@
       <c r="L117" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="M117" s="125" t="s">
+      <c r="M117" s="123" t="s">
         <v>273</v>
       </c>
       <c r="N117" s="53" t="s">
@@ -7523,7 +7520,7 @@
       <c r="Q117" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="R117" s="125" t="s">
+      <c r="R117" s="123" t="s">
         <v>273</v>
       </c>
       <c r="S117" s="53" t="s">
@@ -7537,7 +7534,7 @@
       <c r="B118" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="C118" s="126"/>
+      <c r="C118" s="124"/>
       <c r="D118" s="53" t="s">
         <v>175</v>
       </c>
@@ -7547,7 +7544,7 @@
       <c r="G118" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="H118" s="126"/>
+      <c r="H118" s="124"/>
       <c r="I118" s="53" t="s">
         <v>175</v>
       </c>
@@ -7557,7 +7554,7 @@
       <c r="L118" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="M118" s="126"/>
+      <c r="M118" s="124"/>
       <c r="N118" s="53" t="s">
         <v>175</v>
       </c>
@@ -7567,7 +7564,7 @@
       <c r="Q118" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="R118" s="126"/>
+      <c r="R118" s="124"/>
       <c r="S118" s="53" t="s">
         <v>434</v>
       </c>
@@ -7592,7 +7589,7 @@
       <c r="A120" s="94" t="s">
         <v>126</v>
       </c>
-      <c r="B120" s="108" t="s">
+      <c r="B120" s="107" t="s">
         <v>118</v>
       </c>
       <c r="C120" s="33"/>
@@ -7600,7 +7597,7 @@
       <c r="F120" s="94" t="s">
         <v>126</v>
       </c>
-      <c r="G120" s="108" t="s">
+      <c r="G120" s="107" t="s">
         <v>118</v>
       </c>
       <c r="H120" s="33"/>
@@ -7608,7 +7605,7 @@
       <c r="K120" s="94" t="s">
         <v>126</v>
       </c>
-      <c r="L120" s="108" t="s">
+      <c r="L120" s="107" t="s">
         <v>118</v>
       </c>
       <c r="M120" s="33"/>
@@ -7616,7 +7613,7 @@
       <c r="P120" s="94" t="s">
         <v>126</v>
       </c>
-      <c r="Q120" s="108" t="s">
+      <c r="Q120" s="107" t="s">
         <v>118</v>
       </c>
       <c r="R120" s="33"/>
@@ -8234,7 +8231,7 @@
       <c r="N135" s="54" t="s">
         <v>181</v>
       </c>
-      <c r="P135" s="112" t="s">
+      <c r="P135" s="111" t="s">
         <v>98</v>
       </c>
       <c r="Q135" s="14" t="s">
@@ -8258,16 +8255,16 @@
       <c r="M136" s="18"/>
       <c r="N136" s="49"/>
       <c r="O136" s="18"/>
-      <c r="P136" s="104"/>
+      <c r="P136" s="103"/>
       <c r="Q136" s="1"/>
       <c r="R136" s="1"/>
-      <c r="S136" s="103"/>
+      <c r="S136" s="102"/>
     </row>
     <row r="137" spans="1:19" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A137" s="98" t="s">
         <v>123</v>
       </c>
-      <c r="B137" s="109" t="s">
+      <c r="B137" s="108" t="s">
         <v>127</v>
       </c>
       <c r="C137" s="96"/>
@@ -8275,7 +8272,7 @@
       <c r="F137" s="98" t="s">
         <v>123</v>
       </c>
-      <c r="G137" s="109" t="s">
+      <c r="G137" s="108" t="s">
         <v>127</v>
       </c>
       <c r="H137" s="96"/>
@@ -8283,15 +8280,15 @@
       <c r="K137" s="98" t="s">
         <v>123</v>
       </c>
-      <c r="L137" s="109" t="s">
+      <c r="L137" s="108" t="s">
         <v>127</v>
       </c>
       <c r="M137" s="96"/>
       <c r="N137" s="97"/>
-      <c r="P137" s="104"/>
+      <c r="P137" s="103"/>
       <c r="Q137" s="1"/>
       <c r="R137" s="1"/>
-      <c r="S137" s="103"/>
+      <c r="S137" s="102"/>
     </row>
     <row r="138" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="99" t="s">
@@ -8316,10 +8313,10 @@
         <v>318</v>
       </c>
       <c r="N138" s="49"/>
-      <c r="P138" s="104"/>
+      <c r="P138" s="103"/>
       <c r="Q138" s="1"/>
       <c r="R138" s="1"/>
-      <c r="S138" s="103"/>
+      <c r="S138" s="102"/>
     </row>
     <row r="139" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="64" t="s">
@@ -8352,10 +8349,10 @@
       <c r="N139" s="55" t="s">
         <v>181</v>
       </c>
-      <c r="P139" s="104"/>
+      <c r="P139" s="103"/>
       <c r="Q139" s="1"/>
       <c r="R139" s="1"/>
-      <c r="S139" s="103"/>
+      <c r="S139" s="102"/>
     </row>
     <row r="140" spans="1:19" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A140" s="64" t="s">
@@ -8371,10 +8368,10 @@
         <v>181</v>
       </c>
       <c r="O140"/>
-      <c r="P140" s="104"/>
+      <c r="P140" s="103"/>
       <c r="Q140" s="1"/>
       <c r="R140" s="1"/>
-      <c r="S140" s="103"/>
+      <c r="S140" s="102"/>
     </row>
     <row r="141" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="99" t="s">
@@ -8399,10 +8396,10 @@
         <v>319</v>
       </c>
       <c r="N141" s="49"/>
-      <c r="P141" s="104"/>
+      <c r="P141" s="103"/>
       <c r="Q141" s="1"/>
       <c r="R141" s="1"/>
-      <c r="S141" s="103"/>
+      <c r="S141" s="102"/>
     </row>
     <row r="142" spans="1:19" s="18" customFormat="1" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A142" s="64" t="s">
@@ -8417,10 +8414,10 @@
       <c r="D142" s="55" t="s">
         <v>181</v>
       </c>
-      <c r="P142" s="104"/>
+      <c r="P142" s="103"/>
       <c r="Q142" s="1"/>
       <c r="R142" s="1"/>
-      <c r="S142" s="103"/>
+      <c r="S142" s="102"/>
     </row>
     <row r="143" spans="1:19" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A143" s="64" t="s">
@@ -8435,18 +8432,18 @@
       <c r="D143" s="55" t="s">
         <v>181</v>
       </c>
-      <c r="F143" s="104"/>
+      <c r="F143" s="103"/>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
-      <c r="I143" s="103"/>
-      <c r="K143" s="104"/>
+      <c r="I143" s="102"/>
+      <c r="K143" s="103"/>
       <c r="L143" s="1"/>
       <c r="M143" s="1"/>
-      <c r="N143" s="103"/>
-      <c r="P143" s="104"/>
+      <c r="N143" s="102"/>
+      <c r="P143" s="103"/>
       <c r="Q143" s="1"/>
       <c r="R143" s="1"/>
-      <c r="S143" s="103"/>
+      <c r="S143" s="102"/>
     </row>
     <row r="144" spans="1:19" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A144" s="64" t="s">
@@ -8461,18 +8458,18 @@
       <c r="D144" s="55" t="s">
         <v>181</v>
       </c>
-      <c r="F144" s="104"/>
+      <c r="F144" s="103"/>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
-      <c r="I144" s="103"/>
-      <c r="K144" s="104"/>
+      <c r="I144" s="102"/>
+      <c r="K144" s="103"/>
       <c r="L144" s="1"/>
       <c r="M144" s="1"/>
-      <c r="N144" s="103"/>
-      <c r="P144" s="104"/>
+      <c r="N144" s="102"/>
+      <c r="P144" s="103"/>
       <c r="Q144" s="1"/>
       <c r="R144" s="1"/>
-      <c r="S144" s="103"/>
+      <c r="S144" s="102"/>
     </row>
     <row r="145" spans="1:19" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A145" s="64" t="s">
@@ -8487,7 +8484,7 @@
       <c r="D145" s="55" t="s">
         <v>181</v>
       </c>
-      <c r="F145" s="107" t="s">
+      <c r="F145" s="106" t="s">
         <v>102</v>
       </c>
       <c r="G145" s="15" t="s">
@@ -8512,10 +8509,10 @@
       <c r="N145" s="55" t="s">
         <v>181</v>
       </c>
-      <c r="P145" s="104"/>
+      <c r="P145" s="103"/>
       <c r="Q145" s="1"/>
       <c r="R145" s="1"/>
-      <c r="S145" s="103"/>
+      <c r="S145" s="102"/>
     </row>
     <row r="146" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="99" t="s">
@@ -8526,18 +8523,18 @@
       </c>
       <c r="C146" s="46"/>
       <c r="D146" s="46"/>
-      <c r="F146" s="104"/>
+      <c r="F146" s="103"/>
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
-      <c r="I146" s="103"/>
-      <c r="K146" s="104"/>
+      <c r="I146" s="102"/>
+      <c r="K146" s="103"/>
       <c r="L146" s="1"/>
       <c r="M146" s="1"/>
-      <c r="N146" s="103"/>
-      <c r="P146" s="104"/>
+      <c r="N146" s="102"/>
+      <c r="P146" s="103"/>
       <c r="Q146" s="1"/>
       <c r="R146" s="1"/>
-      <c r="S146" s="103"/>
+      <c r="S146" s="102"/>
     </row>
     <row r="147" spans="1:19" s="18" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A147" s="64" t="s">
@@ -8552,18 +8549,18 @@
       <c r="D147" s="55" t="s">
         <v>181</v>
       </c>
-      <c r="F147" s="104"/>
+      <c r="F147" s="103"/>
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
-      <c r="I147" s="103"/>
-      <c r="K147" s="104"/>
+      <c r="I147" s="102"/>
+      <c r="K147" s="103"/>
       <c r="L147" s="1"/>
       <c r="M147" s="1"/>
-      <c r="N147" s="103"/>
-      <c r="P147" s="104"/>
+      <c r="N147" s="102"/>
+      <c r="P147" s="103"/>
       <c r="Q147" s="1"/>
       <c r="R147" s="1"/>
-      <c r="S147" s="103"/>
+      <c r="S147" s="102"/>
     </row>
     <row r="148" spans="1:19" s="18" customFormat="1" ht="84" x14ac:dyDescent="0.25">
       <c r="A148" s="64" t="s">
@@ -8578,18 +8575,18 @@
       <c r="D148" s="55" t="s">
         <v>181</v>
       </c>
-      <c r="F148" s="104"/>
+      <c r="F148" s="103"/>
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
-      <c r="I148" s="103"/>
-      <c r="K148" s="104"/>
+      <c r="I148" s="102"/>
+      <c r="K148" s="103"/>
       <c r="L148" s="1"/>
       <c r="M148" s="1"/>
-      <c r="N148" s="103"/>
-      <c r="P148" s="104"/>
+      <c r="N148" s="102"/>
+      <c r="P148" s="103"/>
       <c r="Q148" s="1"/>
       <c r="R148" s="1"/>
-      <c r="S148" s="103"/>
+      <c r="S148" s="102"/>
     </row>
     <row r="149" spans="1:19" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.25">
       <c r="A149" s="64" t="s">
@@ -8604,56 +8601,56 @@
       <c r="D149" s="55" t="s">
         <v>181</v>
       </c>
-      <c r="F149" s="104"/>
+      <c r="F149" s="103"/>
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
-      <c r="I149" s="103"/>
-      <c r="K149" s="104"/>
+      <c r="I149" s="102"/>
+      <c r="K149" s="103"/>
       <c r="L149" s="1"/>
       <c r="M149" s="1"/>
-      <c r="N149" s="103"/>
-      <c r="P149" s="104"/>
+      <c r="N149" s="102"/>
+      <c r="P149" s="103"/>
       <c r="Q149" s="1"/>
       <c r="R149" s="1"/>
-      <c r="S149" s="103"/>
+      <c r="S149" s="102"/>
     </row>
     <row r="150" spans="1:19" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="F150" s="104"/>
+      <c r="F150" s="103"/>
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
-      <c r="I150" s="103"/>
+      <c r="I150" s="102"/>
       <c r="J150" s="18"/>
-      <c r="K150" s="104"/>
+      <c r="K150" s="103"/>
       <c r="L150" s="1"/>
       <c r="M150" s="1"/>
-      <c r="N150" s="103"/>
+      <c r="N150" s="102"/>
       <c r="O150" s="18"/>
-      <c r="P150" s="104"/>
+      <c r="P150" s="103"/>
       <c r="Q150" s="1"/>
       <c r="R150" s="1"/>
-      <c r="S150" s="103"/>
+      <c r="S150" s="102"/>
     </row>
     <row r="151" spans="1:19" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A151" s="100" t="s">
         <v>119</v>
       </c>
-      <c r="B151" s="110" t="s">
+      <c r="B151" s="109" t="s">
         <v>122</v>
       </c>
       <c r="C151" s="39"/>
       <c r="D151" s="39"/>
-      <c r="F151" s="104"/>
+      <c r="F151" s="103"/>
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
-      <c r="I151" s="103"/>
-      <c r="K151" s="104"/>
+      <c r="I151" s="102"/>
+      <c r="K151" s="103"/>
       <c r="L151" s="1"/>
       <c r="M151" s="1"/>
-      <c r="N151" s="103"/>
-      <c r="P151" s="104"/>
+      <c r="N151" s="102"/>
+      <c r="P151" s="103"/>
       <c r="Q151" s="1"/>
       <c r="R151" s="1"/>
-      <c r="S151" s="103"/>
+      <c r="S151" s="102"/>
     </row>
     <row r="152" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="101" t="s">
@@ -8664,18 +8661,18 @@
       </c>
       <c r="C152" s="47"/>
       <c r="D152" s="47"/>
-      <c r="F152" s="104"/>
+      <c r="F152" s="103"/>
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
-      <c r="I152" s="103"/>
-      <c r="K152" s="104"/>
+      <c r="I152" s="102"/>
+      <c r="K152" s="103"/>
       <c r="L152" s="1"/>
       <c r="M152" s="1"/>
-      <c r="N152" s="103"/>
-      <c r="P152" s="104"/>
+      <c r="N152" s="102"/>
+      <c r="P152" s="103"/>
       <c r="Q152" s="1"/>
       <c r="R152" s="1"/>
-      <c r="S152" s="103"/>
+      <c r="S152" s="102"/>
     </row>
     <row r="153" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="65" t="s">
@@ -8688,18 +8685,18 @@
       <c r="D153" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="F153" s="104"/>
+      <c r="F153" s="103"/>
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
-      <c r="I153" s="103"/>
-      <c r="K153" s="104"/>
+      <c r="I153" s="102"/>
+      <c r="K153" s="103"/>
       <c r="L153" s="1"/>
       <c r="M153" s="1"/>
-      <c r="N153" s="103"/>
-      <c r="P153" s="104"/>
+      <c r="N153" s="102"/>
+      <c r="P153" s="103"/>
       <c r="Q153" s="1"/>
       <c r="R153" s="1"/>
-      <c r="S153" s="103"/>
+      <c r="S153" s="102"/>
     </row>
     <row r="154" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="65" t="s">
@@ -8712,18 +8709,18 @@
       <c r="D154" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="F154" s="104"/>
+      <c r="F154" s="103"/>
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
-      <c r="I154" s="103"/>
-      <c r="K154" s="104"/>
+      <c r="I154" s="102"/>
+      <c r="K154" s="103"/>
       <c r="L154" s="1"/>
       <c r="M154" s="1"/>
-      <c r="N154" s="103"/>
-      <c r="P154" s="104"/>
+      <c r="N154" s="102"/>
+      <c r="P154" s="103"/>
       <c r="Q154" s="1"/>
       <c r="R154" s="1"/>
-      <c r="S154" s="103"/>
+      <c r="S154" s="102"/>
     </row>
     <row r="155" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="65" t="s">
@@ -8736,18 +8733,18 @@
       <c r="D155" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="F155" s="104"/>
+      <c r="F155" s="103"/>
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
-      <c r="I155" s="103"/>
-      <c r="K155" s="104"/>
+      <c r="I155" s="102"/>
+      <c r="K155" s="103"/>
       <c r="L155" s="1"/>
       <c r="M155" s="1"/>
-      <c r="N155" s="103"/>
-      <c r="P155" s="104"/>
+      <c r="N155" s="102"/>
+      <c r="P155" s="103"/>
       <c r="Q155" s="1"/>
       <c r="R155" s="1"/>
-      <c r="S155" s="103"/>
+      <c r="S155" s="102"/>
     </row>
     <row r="156" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="65" t="s">
@@ -8760,18 +8757,18 @@
       <c r="D156" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="F156" s="104"/>
+      <c r="F156" s="103"/>
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
-      <c r="I156" s="103"/>
-      <c r="K156" s="104"/>
+      <c r="I156" s="102"/>
+      <c r="K156" s="103"/>
       <c r="L156" s="1"/>
       <c r="M156" s="1"/>
-      <c r="N156" s="103"/>
-      <c r="P156" s="104"/>
+      <c r="N156" s="102"/>
+      <c r="P156" s="103"/>
       <c r="Q156" s="1"/>
       <c r="R156" s="1"/>
-      <c r="S156" s="103"/>
+      <c r="S156" s="102"/>
     </row>
     <row r="157" spans="1:19" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A157" s="101" t="s">
@@ -8782,19 +8779,19 @@
       </c>
       <c r="C157" s="47"/>
       <c r="D157" s="47"/>
-      <c r="F157" s="104"/>
+      <c r="F157" s="103"/>
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
-      <c r="I157" s="103"/>
-      <c r="K157" s="104"/>
+      <c r="I157" s="102"/>
+      <c r="K157" s="103"/>
       <c r="L157" s="1"/>
       <c r="M157" s="1"/>
-      <c r="N157" s="103"/>
+      <c r="N157" s="102"/>
       <c r="O157"/>
-      <c r="P157" s="104"/>
+      <c r="P157" s="103"/>
       <c r="Q157" s="1"/>
       <c r="R157" s="1"/>
-      <c r="S157" s="103"/>
+      <c r="S157" s="102"/>
     </row>
     <row r="158" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="65" t="s">
@@ -8809,18 +8806,18 @@
       <c r="D158" s="56" t="s">
         <v>185</v>
       </c>
-      <c r="F158" s="104"/>
+      <c r="F158" s="103"/>
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
-      <c r="I158" s="103"/>
-      <c r="K158" s="104"/>
+      <c r="I158" s="102"/>
+      <c r="K158" s="103"/>
       <c r="L158" s="1"/>
       <c r="M158" s="1"/>
-      <c r="N158" s="103"/>
-      <c r="P158" s="104"/>
+      <c r="N158" s="102"/>
+      <c r="P158" s="103"/>
       <c r="Q158" s="1"/>
       <c r="R158" s="1"/>
-      <c r="S158" s="103"/>
+      <c r="S158" s="102"/>
     </row>
     <row r="159" spans="1:19" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A159" s="65" t="s">
@@ -8835,19 +8832,19 @@
       <c r="D159" s="56" t="s">
         <v>175</v>
       </c>
-      <c r="F159" s="104"/>
+      <c r="F159" s="103"/>
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
-      <c r="I159" s="103"/>
+      <c r="I159" s="102"/>
       <c r="J159"/>
-      <c r="K159" s="104"/>
+      <c r="K159" s="103"/>
       <c r="L159" s="1"/>
       <c r="M159" s="1"/>
-      <c r="N159" s="103"/>
-      <c r="P159" s="104"/>
+      <c r="N159" s="102"/>
+      <c r="P159" s="103"/>
       <c r="Q159" s="1"/>
       <c r="R159" s="1"/>
-      <c r="S159" s="103"/>
+      <c r="S159" s="102"/>
     </row>
     <row r="160" spans="1:19" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A160" s="65" t="s">
@@ -8862,18 +8859,18 @@
       <c r="D160" s="56" t="s">
         <v>175</v>
       </c>
-      <c r="F160" s="104"/>
+      <c r="F160" s="103"/>
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
-      <c r="I160" s="103"/>
-      <c r="K160" s="104"/>
+      <c r="I160" s="102"/>
+      <c r="K160" s="103"/>
       <c r="L160" s="1"/>
       <c r="M160" s="1"/>
-      <c r="N160" s="103"/>
-      <c r="P160" s="104"/>
+      <c r="N160" s="102"/>
+      <c r="P160" s="103"/>
       <c r="Q160" s="1"/>
       <c r="R160" s="1"/>
-      <c r="S160" s="103"/>
+      <c r="S160" s="102"/>
     </row>
     <row r="161" spans="1:19" s="18" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A161" s="65" t="s">
@@ -8888,18 +8885,18 @@
       <c r="D161" s="56" t="s">
         <v>185</v>
       </c>
-      <c r="F161" s="104"/>
+      <c r="F161" s="103"/>
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
-      <c r="I161" s="103"/>
-      <c r="K161" s="104"/>
+      <c r="I161" s="102"/>
+      <c r="K161" s="103"/>
       <c r="L161" s="1"/>
       <c r="M161" s="1"/>
-      <c r="N161" s="103"/>
-      <c r="P161" s="104"/>
+      <c r="N161" s="102"/>
+      <c r="P161" s="103"/>
       <c r="Q161" s="1"/>
       <c r="R161" s="1"/>
-      <c r="S161" s="103"/>
+      <c r="S161" s="102"/>
     </row>
     <row r="162" spans="1:19" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A162" s="65" t="s">
@@ -8914,18 +8911,18 @@
       <c r="D162" s="56" t="s">
         <v>185</v>
       </c>
-      <c r="F162" s="104"/>
+      <c r="F162" s="103"/>
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
-      <c r="I162" s="103"/>
-      <c r="K162" s="104"/>
+      <c r="I162" s="102"/>
+      <c r="K162" s="103"/>
       <c r="L162" s="1"/>
       <c r="M162" s="1"/>
-      <c r="N162" s="103"/>
-      <c r="P162" s="104"/>
+      <c r="N162" s="102"/>
+      <c r="P162" s="103"/>
       <c r="Q162" s="1"/>
       <c r="R162" s="1"/>
-      <c r="S162" s="103"/>
+      <c r="S162" s="102"/>
     </row>
     <row r="163" spans="1:19" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A163" s="65" t="s">
@@ -8940,18 +8937,18 @@
       <c r="D163" s="56" t="s">
         <v>185</v>
       </c>
-      <c r="F163" s="104"/>
+      <c r="F163" s="103"/>
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
-      <c r="I163" s="103"/>
-      <c r="K163" s="104"/>
+      <c r="I163" s="102"/>
+      <c r="K163" s="103"/>
       <c r="L163" s="1"/>
       <c r="M163" s="1"/>
-      <c r="N163" s="103"/>
-      <c r="P163" s="104"/>
+      <c r="N163" s="102"/>
+      <c r="P163" s="103"/>
       <c r="Q163" s="1"/>
       <c r="R163" s="1"/>
-      <c r="S163" s="103"/>
+      <c r="S163" s="102"/>
     </row>
     <row r="164" spans="1:19" x14ac:dyDescent="0.25">
       <c r="J164" s="18"/>
@@ -9027,28 +9024,11 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="R15:R18"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="M6:M9"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M15:M18"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="R6:R9"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="M117:M118"/>
-    <mergeCell ref="R28:R31"/>
-    <mergeCell ref="R42:R45"/>
-    <mergeCell ref="R48:R49"/>
-    <mergeCell ref="R58:R59"/>
-    <mergeCell ref="R92:R93"/>
-    <mergeCell ref="R117:R118"/>
-    <mergeCell ref="M28:M31"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="M48:M49"/>
-    <mergeCell ref="M58:M59"/>
-    <mergeCell ref="M92:M93"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="C117:C118"/>
     <mergeCell ref="H58:H59"/>
     <mergeCell ref="H92:H93"/>
     <mergeCell ref="H117:H118"/>
@@ -9065,11 +9045,28 @@
     <mergeCell ref="H28:H31"/>
     <mergeCell ref="H42:H45"/>
     <mergeCell ref="H48:H49"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="M117:M118"/>
+    <mergeCell ref="R28:R31"/>
+    <mergeCell ref="R42:R45"/>
+    <mergeCell ref="R48:R49"/>
+    <mergeCell ref="R58:R59"/>
+    <mergeCell ref="R92:R93"/>
+    <mergeCell ref="R117:R118"/>
+    <mergeCell ref="M28:M31"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="M48:M49"/>
+    <mergeCell ref="M58:M59"/>
+    <mergeCell ref="M92:M93"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="R6:R9"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="R15:R18"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M6:M9"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M15:M18"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="F3:S71 F72:G72 I72:L72 N72:Q72 S72 F73:S163">
@@ -9100,12 +9097,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="18" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="122" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
     </row>
     <row r="3" spans="1:4" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="91" t="s">
@@ -9148,7 +9145,7 @@
       <c r="B6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="127" t="s">
+      <c r="C6" s="119" t="s">
         <v>329</v>
       </c>
       <c r="D6" s="50" t="s">
@@ -9162,7 +9159,7 @@
       <c r="B7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="128"/>
+      <c r="C7" s="120"/>
       <c r="D7" s="50" t="s">
         <v>169</v>
       </c>
@@ -9174,7 +9171,7 @@
       <c r="B8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="128"/>
+      <c r="C8" s="120"/>
       <c r="D8" s="50" t="s">
         <v>169</v>
       </c>
@@ -9186,7 +9183,7 @@
       <c r="B9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="129"/>
+      <c r="C9" s="121"/>
       <c r="D9" s="50" t="s">
         <v>169</v>
       </c>
@@ -9208,7 +9205,7 @@
       <c r="B11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="127" t="s">
+      <c r="C11" s="119" t="s">
         <v>330</v>
       </c>
       <c r="D11" s="50" t="s">
@@ -9222,7 +9219,7 @@
       <c r="B12" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C12" s="129"/>
+      <c r="C12" s="121"/>
       <c r="D12" s="50" t="s">
         <v>175</v>
       </c>
@@ -9258,7 +9255,7 @@
       <c r="B15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="127" t="s">
+      <c r="C15" s="119" t="s">
         <v>331</v>
       </c>
       <c r="D15" s="50" t="s">
@@ -9272,7 +9269,7 @@
       <c r="B16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C16" s="128"/>
+      <c r="C16" s="120"/>
       <c r="D16" s="50" t="s">
         <v>181</v>
       </c>
@@ -9284,7 +9281,7 @@
       <c r="B17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="128"/>
+      <c r="C17" s="120"/>
       <c r="D17" s="50" t="s">
         <v>169</v>
       </c>
@@ -9296,7 +9293,7 @@
       <c r="B18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="129"/>
+      <c r="C18" s="121"/>
       <c r="D18" s="50" t="s">
         <v>169</v>
       </c>
@@ -9364,7 +9361,7 @@
       <c r="B23" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="C23" s="127" t="s">
+      <c r="C23" s="119" t="s">
         <v>336</v>
       </c>
       <c r="D23" s="50" t="s">
@@ -9378,7 +9375,7 @@
       <c r="B24" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C24" s="129"/>
+      <c r="C24" s="121"/>
       <c r="D24" s="50" t="s">
         <v>175</v>
       </c>
@@ -9428,7 +9425,7 @@
       <c r="B28" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C28" s="127" t="s">
+      <c r="C28" s="119" t="s">
         <v>339</v>
       </c>
       <c r="D28" s="50" t="s">
@@ -9442,7 +9439,7 @@
       <c r="B29" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C29" s="128"/>
+      <c r="C29" s="120"/>
       <c r="D29" s="50" t="s">
         <v>181</v>
       </c>
@@ -9454,7 +9451,7 @@
       <c r="B30" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C30" s="128"/>
+      <c r="C30" s="120"/>
       <c r="D30" s="50" t="s">
         <v>181</v>
       </c>
@@ -9466,7 +9463,7 @@
       <c r="B31" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C31" s="129"/>
+      <c r="C31" s="121"/>
       <c r="D31" s="50" t="s">
         <v>181</v>
       </c>
@@ -9488,7 +9485,7 @@
       <c r="B33" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C33" s="127" t="s">
+      <c r="C33" s="119" t="s">
         <v>340</v>
       </c>
       <c r="D33" s="50" t="s">
@@ -9502,7 +9499,7 @@
       <c r="B34" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C34" s="128"/>
+      <c r="C34" s="120"/>
       <c r="D34" s="50" t="s">
         <v>185</v>
       </c>
@@ -9514,7 +9511,7 @@
       <c r="B35" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="C35" s="129"/>
+      <c r="C35" s="121"/>
       <c r="D35" s="50" t="s">
         <v>185</v>
       </c>
@@ -9526,7 +9523,7 @@
       <c r="B36" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C36" s="127" t="s">
+      <c r="C36" s="119" t="s">
         <v>341</v>
       </c>
       <c r="D36" s="50" t="s">
@@ -9540,7 +9537,7 @@
       <c r="B37" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="C37" s="128"/>
+      <c r="C37" s="120"/>
       <c r="D37" s="50" t="s">
         <v>175</v>
       </c>
@@ -9552,7 +9549,7 @@
       <c r="B38" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C38" s="129"/>
+      <c r="C38" s="121"/>
       <c r="D38" s="50" t="s">
         <v>175</v>
       </c>
@@ -9590,7 +9587,7 @@
       <c r="B42" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C42" s="120" t="s">
+      <c r="C42" s="125" t="s">
         <v>205</v>
       </c>
       <c r="D42" s="51" t="s">
@@ -9604,7 +9601,7 @@
       <c r="B43" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C43" s="121"/>
+      <c r="C43" s="126"/>
       <c r="D43" s="51" t="s">
         <v>181</v>
       </c>
@@ -9616,7 +9613,7 @@
       <c r="B44" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C44" s="121"/>
+      <c r="C44" s="126"/>
       <c r="D44" s="51" t="s">
         <v>181</v>
       </c>
@@ -9628,7 +9625,7 @@
       <c r="B45" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="C45" s="122"/>
+      <c r="C45" s="127"/>
       <c r="D45" s="51" t="s">
         <v>181</v>
       </c>
@@ -9664,7 +9661,7 @@
       <c r="B48" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C48" s="120" t="s">
+      <c r="C48" s="125" t="s">
         <v>343</v>
       </c>
       <c r="D48" s="51" t="s">
@@ -9678,7 +9675,7 @@
       <c r="B49" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C49" s="122"/>
+      <c r="C49" s="127"/>
       <c r="D49" s="51" t="s">
         <v>185</v>
       </c>
@@ -9802,7 +9799,7 @@
       <c r="B58" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C58" s="120" t="s">
+      <c r="C58" s="125" t="s">
         <v>413</v>
       </c>
       <c r="D58" s="51" t="s">
@@ -9816,7 +9813,7 @@
       <c r="B59" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="C59" s="122"/>
+      <c r="C59" s="127"/>
       <c r="D59" s="51" t="s">
         <v>169</v>
       </c>
@@ -10250,7 +10247,7 @@
       <c r="B92" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="C92" s="123" t="s">
+      <c r="C92" s="128" t="s">
         <v>427</v>
       </c>
       <c r="D92" s="52" t="s">
@@ -10264,7 +10261,7 @@
       <c r="B93" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="C93" s="124"/>
+      <c r="C93" s="129"/>
       <c r="D93" s="52" t="s">
         <v>185</v>
       </c>
@@ -10542,7 +10539,7 @@
       <c r="B117" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="C117" s="125" t="s">
+      <c r="C117" s="123" t="s">
         <v>273</v>
       </c>
       <c r="D117" s="53" t="s">
@@ -10556,7 +10553,7 @@
       <c r="B118" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="C118" s="126"/>
+      <c r="C118" s="124"/>
       <c r="D118" s="53" t="s">
         <v>175</v>
       </c>
@@ -10566,7 +10563,7 @@
       <c r="A120" s="94" t="s">
         <v>126</v>
       </c>
-      <c r="B120" s="108" t="s">
+      <c r="B120" s="107" t="s">
         <v>118</v>
       </c>
       <c r="C120" s="33"/>
@@ -10761,7 +10758,7 @@
       <c r="A137" s="98" t="s">
         <v>123</v>
       </c>
-      <c r="B137" s="109" t="s">
+      <c r="B137" s="108" t="s">
         <v>127</v>
       </c>
       <c r="C137" s="96"/>
@@ -10926,7 +10923,7 @@
       <c r="A151" s="100" t="s">
         <v>119</v>
       </c>
-      <c r="B151" s="110" t="s">
+      <c r="B151" s="109" t="s">
         <v>122</v>
       </c>
       <c r="C151" s="39"/>
@@ -11086,12 +11083,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C48:C49"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="C23:C24"/>
@@ -11099,6 +11090,12 @@
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C15:C18"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C48:C49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11109,26 +11106,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F752FCB-318B-4B42-BD1B-46C0671C7822}">
   <dimension ref="A1:D161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B52" sqref="A52:B52"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B29" sqref="A28:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.26953125" style="104" customWidth="1"/>
+    <col min="1" max="1" width="6.26953125" style="103" customWidth="1"/>
     <col min="2" max="2" width="62.7265625" style="1" customWidth="1"/>
     <col min="3" max="3" width="82.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.26953125" style="103" customWidth="1"/>
+    <col min="4" max="4" width="5.26953125" style="102" customWidth="1"/>
     <col min="5" max="16384" width="11.453125" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="18" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="122" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="58"/>
@@ -11177,7 +11174,7 @@
       <c r="B6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="127" t="s">
+      <c r="C6" s="119" t="s">
         <v>329</v>
       </c>
       <c r="D6" s="50" t="s">
@@ -11191,7 +11188,7 @@
       <c r="B7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="128"/>
+      <c r="C7" s="120"/>
       <c r="D7" s="50" t="s">
         <v>169</v>
       </c>
@@ -11203,7 +11200,7 @@
       <c r="B8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="128"/>
+      <c r="C8" s="120"/>
       <c r="D8" s="50" t="s">
         <v>169</v>
       </c>
@@ -11215,7 +11212,7 @@
       <c r="B9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="129"/>
+      <c r="C9" s="121"/>
       <c r="D9" s="50" t="s">
         <v>169</v>
       </c>
@@ -11237,7 +11234,7 @@
       <c r="B11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="127" t="s">
+      <c r="C11" s="119" t="s">
         <v>330</v>
       </c>
       <c r="D11" s="50" t="s">
@@ -11251,7 +11248,7 @@
       <c r="B12" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="C12" s="129"/>
+      <c r="C12" s="121"/>
       <c r="D12" s="50" t="s">
         <v>175</v>
       </c>
@@ -11287,7 +11284,7 @@
       <c r="B15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="127" t="s">
+      <c r="C15" s="119" t="s">
         <v>331</v>
       </c>
       <c r="D15" s="50" t="s">
@@ -11301,7 +11298,7 @@
       <c r="B16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C16" s="128"/>
+      <c r="C16" s="120"/>
       <c r="D16" s="50" t="s">
         <v>181</v>
       </c>
@@ -11313,7 +11310,7 @@
       <c r="B17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="128"/>
+      <c r="C17" s="120"/>
       <c r="D17" s="50" t="s">
         <v>169</v>
       </c>
@@ -11325,7 +11322,7 @@
       <c r="B18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="129"/>
+      <c r="C18" s="121"/>
       <c r="D18" s="50" t="s">
         <v>169</v>
       </c>
@@ -11387,7 +11384,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A23" s="113" t="s">
+      <c r="A23" s="112" t="s">
         <v>16</v>
       </c>
       <c r="B23" s="10" t="s">
@@ -11401,7 +11398,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="113" t="s">
+      <c r="A24" s="112" t="s">
         <v>17</v>
       </c>
       <c r="B24" s="10" t="s">
@@ -11431,7 +11428,7 @@
       <c r="B26" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C26" s="127" t="s">
+      <c r="C26" s="119" t="s">
         <v>339</v>
       </c>
       <c r="D26" s="50" t="s">
@@ -11445,7 +11442,7 @@
       <c r="B27" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C27" s="128"/>
+      <c r="C27" s="120"/>
       <c r="D27" s="50" t="s">
         <v>181</v>
       </c>
@@ -11457,7 +11454,7 @@
       <c r="B28" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C28" s="128"/>
+      <c r="C28" s="120"/>
       <c r="D28" s="50" t="s">
         <v>181</v>
       </c>
@@ -11469,7 +11466,7 @@
       <c r="B29" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C29" s="129"/>
+      <c r="C29" s="121"/>
       <c r="D29" s="50" t="s">
         <v>181</v>
       </c>
@@ -11507,7 +11504,7 @@
       <c r="B33" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C33" s="120" t="s">
+      <c r="C33" s="125" t="s">
         <v>205</v>
       </c>
       <c r="D33" s="51" t="s">
@@ -11521,7 +11518,7 @@
       <c r="B34" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C34" s="121"/>
+      <c r="C34" s="126"/>
       <c r="D34" s="51" t="s">
         <v>181</v>
       </c>
@@ -11533,7 +11530,7 @@
       <c r="B35" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C35" s="121"/>
+      <c r="C35" s="126"/>
       <c r="D35" s="51" t="s">
         <v>181</v>
       </c>
@@ -11545,7 +11542,7 @@
       <c r="B36" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="C36" s="122"/>
+      <c r="C36" s="127"/>
       <c r="D36" s="51" t="s">
         <v>181</v>
       </c>
@@ -11581,7 +11578,7 @@
       <c r="B39" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C39" s="120" t="s">
+      <c r="C39" s="125" t="s">
         <v>343</v>
       </c>
       <c r="D39" s="51" t="s">
@@ -11595,7 +11592,7 @@
       <c r="B40" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C40" s="122"/>
+      <c r="C40" s="127"/>
       <c r="D40" s="51" t="s">
         <v>185</v>
       </c>
@@ -11699,13 +11696,13 @@
       </c>
     </row>
     <row r="48" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="114" t="s">
+      <c r="A48" s="113" t="s">
         <v>44</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C48" s="120" t="s">
+      <c r="C48" s="125" t="s">
         <v>413</v>
       </c>
       <c r="D48" s="51" t="s">
@@ -11713,19 +11710,19 @@
       </c>
     </row>
     <row r="49" spans="1:4" s="18" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="114" t="s">
+      <c r="A49" s="113" t="s">
         <v>45</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="C49" s="122"/>
+      <c r="C49" s="127"/>
       <c r="D49" s="51" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:4" s="18" customFormat="1" ht="84" x14ac:dyDescent="0.35">
-      <c r="A50" s="114" t="s">
+      <c r="A50" s="113" t="s">
         <v>46</v>
       </c>
       <c r="B50" s="11" t="s">
@@ -11739,7 +11736,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" s="18" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="114" t="s">
+      <c r="A51" s="113" t="s">
         <v>47</v>
       </c>
       <c r="B51" s="11" t="s">
@@ -11753,7 +11750,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="114" t="s">
+      <c r="A52" s="113" t="s">
         <v>48</v>
       </c>
       <c r="B52" s="11" t="s">
@@ -11767,7 +11764,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="114" t="s">
+      <c r="A53" s="113" t="s">
         <v>49</v>
       </c>
       <c r="B53" s="11" t="s">
@@ -11781,7 +11778,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="114" t="s">
+      <c r="A54" s="113" t="s">
         <v>50</v>
       </c>
       <c r="B54" s="11" t="s">
@@ -12053,7 +12050,7 @@
       <c r="B75" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="C75" s="123" t="s">
+      <c r="C75" s="128" t="s">
         <v>427</v>
       </c>
       <c r="D75" s="52" t="s">
@@ -12067,7 +12064,7 @@
       <c r="B76" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="C76" s="124"/>
+      <c r="C76" s="129"/>
       <c r="D76" s="52" t="s">
         <v>185</v>
       </c>
@@ -12127,7 +12124,7 @@
     <row r="81" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A81" s="58"/>
       <c r="B81" s="18"/>
-      <c r="C81" s="102"/>
+      <c r="C81" s="74"/>
       <c r="D81" s="49"/>
     </row>
     <row r="82" spans="1:4" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -12322,7 +12319,7 @@
       <c r="B98" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="C98" s="125" t="s">
+      <c r="C98" s="123" t="s">
         <v>273</v>
       </c>
       <c r="D98" s="53" t="s">
@@ -12336,7 +12333,7 @@
       <c r="B99" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="C99" s="126"/>
+      <c r="C99" s="124"/>
       <c r="D99" s="53" t="s">
         <v>175</v>
       </c>
@@ -12351,7 +12348,7 @@
       <c r="A101" s="94" t="s">
         <v>126</v>
       </c>
-      <c r="B101" s="108" t="s">
+      <c r="B101" s="107" t="s">
         <v>118</v>
       </c>
       <c r="C101" s="33"/>
@@ -12546,7 +12543,7 @@
       <c r="A118" s="98" t="s">
         <v>123</v>
       </c>
-      <c r="B118" s="109" t="s">
+      <c r="B118" s="108" t="s">
         <v>127</v>
       </c>
       <c r="C118" s="96"/>
@@ -12583,7 +12580,7 @@
       <c r="D121" s="49"/>
     </row>
     <row r="122" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
-      <c r="A122" s="117" t="s">
+      <c r="A122" s="116" t="s">
         <v>102</v>
       </c>
       <c r="B122" s="15" t="s">
@@ -12597,165 +12594,165 @@
       </c>
     </row>
     <row r="123" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="104"/>
+      <c r="A123" s="103"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
-      <c r="D123" s="103"/>
+      <c r="D123" s="102"/>
     </row>
     <row r="124" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="104"/>
+      <c r="A124" s="103"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
-      <c r="D124" s="103"/>
+      <c r="D124" s="102"/>
     </row>
     <row r="125" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="104"/>
+      <c r="A125" s="103"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
-      <c r="D125" s="103"/>
+      <c r="D125" s="102"/>
     </row>
     <row r="126" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="104"/>
+      <c r="A126" s="103"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
-      <c r="D126" s="103"/>
+      <c r="D126" s="102"/>
     </row>
     <row r="127" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A127" s="104"/>
+      <c r="A127" s="103"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
-      <c r="D127" s="103"/>
+      <c r="D127" s="102"/>
     </row>
     <row r="128" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="104"/>
+      <c r="A128" s="103"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
-      <c r="D128" s="103"/>
+      <c r="D128" s="102"/>
     </row>
     <row r="129" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="104"/>
+      <c r="A129" s="103"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
-      <c r="D129" s="103"/>
+      <c r="D129" s="102"/>
     </row>
     <row r="130" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="104"/>
+      <c r="A130" s="103"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
-      <c r="D130" s="103"/>
+      <c r="D130" s="102"/>
     </row>
     <row r="131" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="104"/>
+      <c r="A131" s="103"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
-      <c r="D131" s="103"/>
+      <c r="D131" s="102"/>
     </row>
     <row r="132" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="104"/>
+      <c r="A132" s="103"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
-      <c r="D132" s="103"/>
+      <c r="D132" s="102"/>
     </row>
     <row r="133" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="104"/>
+      <c r="A133" s="103"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
-      <c r="D133" s="103"/>
+      <c r="D133" s="102"/>
     </row>
     <row r="134" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="104"/>
+      <c r="A134" s="103"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
-      <c r="D134" s="103"/>
+      <c r="D134" s="102"/>
     </row>
     <row r="135" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="104"/>
+      <c r="A135" s="103"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
-      <c r="D135" s="103"/>
+      <c r="D135" s="102"/>
     </row>
     <row r="136" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="104"/>
+      <c r="A136" s="103"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
-      <c r="D136" s="103"/>
+      <c r="D136" s="102"/>
     </row>
     <row r="137" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="104"/>
+      <c r="A137" s="103"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
-      <c r="D137" s="103"/>
+      <c r="D137" s="102"/>
     </row>
     <row r="138" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="104"/>
+      <c r="A138" s="103"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
-      <c r="D138" s="103"/>
+      <c r="D138" s="102"/>
     </row>
     <row r="139" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="104"/>
+      <c r="A139" s="103"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
-      <c r="D139" s="103"/>
+      <c r="D139" s="102"/>
     </row>
     <row r="140" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="104"/>
+      <c r="A140" s="103"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
-      <c r="D140" s="103"/>
-    </row>
-    <row r="154" spans="2:4" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D140" s="102"/>
+    </row>
+    <row r="154" spans="2:4" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
-      <c r="D154" s="103"/>
-    </row>
-    <row r="155" spans="2:4" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D154" s="102"/>
+    </row>
+    <row r="155" spans="2:4" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
-      <c r="D155" s="103"/>
-    </row>
-    <row r="156" spans="2:4" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D155" s="102"/>
+    </row>
+    <row r="156" spans="2:4" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
-      <c r="D156" s="103"/>
-    </row>
-    <row r="157" spans="2:4" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D156" s="102"/>
+    </row>
+    <row r="157" spans="2:4" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
-      <c r="D157" s="103"/>
-    </row>
-    <row r="158" spans="2:4" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D157" s="102"/>
+    </row>
+    <row r="158" spans="2:4" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
-      <c r="D158" s="103"/>
-    </row>
-    <row r="159" spans="2:4" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D158" s="102"/>
+    </row>
+    <row r="159" spans="2:4" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
-      <c r="D159" s="103"/>
-    </row>
-    <row r="160" spans="2:4" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D159" s="102"/>
+    </row>
+    <row r="160" spans="2:4" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
-      <c r="D160" s="103"/>
-    </row>
-    <row r="161" spans="2:4" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D160" s="102"/>
+    </row>
+    <row r="161" spans="2:4" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
-      <c r="D161" s="103"/>
+      <c r="D161" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C6:C9"/>
     <mergeCell ref="C98:C99"/>
     <mergeCell ref="C48:C49"/>
     <mergeCell ref="C75:C76"/>
     <mergeCell ref="C33:C36"/>
     <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C6:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12772,20 +12769,20 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.26953125" style="104" customWidth="1"/>
+    <col min="1" max="1" width="6.26953125" style="103" customWidth="1"/>
     <col min="2" max="2" width="62.7265625" style="1" customWidth="1"/>
     <col min="3" max="3" width="82.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.26953125" style="103" customWidth="1"/>
+    <col min="4" max="4" width="5.26953125" style="102" customWidth="1"/>
     <col min="5" max="16384" width="11.453125" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="18" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="122" t="s">
         <v>421</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="58"/>
@@ -12834,7 +12831,7 @@
       <c r="B6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="127" t="s">
+      <c r="C6" s="119" t="s">
         <v>426</v>
       </c>
       <c r="D6" s="50" t="s">
@@ -12848,7 +12845,7 @@
       <c r="B7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="128"/>
+      <c r="C7" s="120"/>
       <c r="D7" s="50" t="s">
         <v>169</v>
       </c>
@@ -12860,7 +12857,7 @@
       <c r="B8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="128"/>
+      <c r="C8" s="120"/>
       <c r="D8" s="50" t="s">
         <v>169</v>
       </c>
@@ -12872,7 +12869,7 @@
       <c r="B9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="129"/>
+      <c r="C9" s="121"/>
       <c r="D9" s="50" t="s">
         <v>169</v>
       </c>
@@ -12894,7 +12891,7 @@
       <c r="B11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="127" t="s">
+      <c r="C11" s="119" t="s">
         <v>330</v>
       </c>
       <c r="D11" s="50" t="s">
@@ -12908,7 +12905,7 @@
       <c r="B12" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="C12" s="129"/>
+      <c r="C12" s="121"/>
       <c r="D12" s="50" t="s">
         <v>175</v>
       </c>
@@ -12944,7 +12941,7 @@
       <c r="B15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="127" t="s">
+      <c r="C15" s="119" t="s">
         <v>331</v>
       </c>
       <c r="D15" s="50" t="s">
@@ -12958,7 +12955,7 @@
       <c r="B16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C16" s="128"/>
+      <c r="C16" s="120"/>
       <c r="D16" s="50" t="s">
         <v>181</v>
       </c>
@@ -12970,7 +12967,7 @@
       <c r="B17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="128"/>
+      <c r="C17" s="120"/>
       <c r="D17" s="50" t="s">
         <v>169</v>
       </c>
@@ -12982,7 +12979,7 @@
       <c r="B18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="129"/>
+      <c r="C18" s="121"/>
       <c r="D18" s="50" t="s">
         <v>169</v>
       </c>
@@ -13030,7 +13027,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A22" s="113" t="s">
+      <c r="A22" s="112" t="s">
         <v>15</v>
       </c>
       <c r="B22" s="10" t="s">
@@ -13044,7 +13041,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="113" t="s">
+      <c r="A23" s="112" t="s">
         <v>16</v>
       </c>
       <c r="B23" s="10" t="s">
@@ -13074,7 +13071,7 @@
       <c r="B25" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C25" s="127" t="s">
+      <c r="C25" s="119" t="s">
         <v>339</v>
       </c>
       <c r="D25" s="50" t="s">
@@ -13088,7 +13085,7 @@
       <c r="B26" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C26" s="128"/>
+      <c r="C26" s="120"/>
       <c r="D26" s="50" t="s">
         <v>181</v>
       </c>
@@ -13100,7 +13097,7 @@
       <c r="B27" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="C27" s="128"/>
+      <c r="C27" s="120"/>
       <c r="D27" s="50" t="s">
         <v>181</v>
       </c>
@@ -13112,7 +13109,7 @@
       <c r="B28" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C28" s="129"/>
+      <c r="C28" s="121"/>
       <c r="D28" s="50" t="s">
         <v>181</v>
       </c>
@@ -13150,7 +13147,7 @@
       <c r="B32" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C32" s="120" t="s">
+      <c r="C32" s="125" t="s">
         <v>205</v>
       </c>
       <c r="D32" s="51" t="s">
@@ -13164,7 +13161,7 @@
       <c r="B33" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C33" s="122"/>
+      <c r="C33" s="127"/>
       <c r="D33" s="51" t="s">
         <v>181</v>
       </c>
@@ -13224,7 +13221,7 @@
       <c r="B38" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C38" s="120" t="s">
+      <c r="C38" s="125" t="s">
         <v>343</v>
       </c>
       <c r="D38" s="51" t="s">
@@ -13238,7 +13235,7 @@
       <c r="B39" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C39" s="122"/>
+      <c r="C39" s="127"/>
       <c r="D39" s="51" t="s">
         <v>185</v>
       </c>
@@ -13314,7 +13311,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" s="18" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="114" t="s">
+      <c r="A45" s="113" t="s">
         <v>42</v>
       </c>
       <c r="B45" s="11" t="s">
@@ -13328,13 +13325,13 @@
       </c>
     </row>
     <row r="46" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="114" t="s">
+      <c r="A46" s="113" t="s">
         <v>43</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C46" s="120" t="s">
+      <c r="C46" s="125" t="s">
         <v>413</v>
       </c>
       <c r="D46" s="51" t="s">
@@ -13342,19 +13339,19 @@
       </c>
     </row>
     <row r="47" spans="1:4" s="18" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="114" t="s">
+      <c r="A47" s="113" t="s">
         <v>44</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="C47" s="122"/>
+      <c r="C47" s="127"/>
       <c r="D47" s="51" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:4" s="18" customFormat="1" ht="84" x14ac:dyDescent="0.35">
-      <c r="A48" s="114" t="s">
+      <c r="A48" s="113" t="s">
         <v>45</v>
       </c>
       <c r="B48" s="11" t="s">
@@ -13368,7 +13365,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" s="18" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="114" t="s">
+      <c r="A49" s="113" t="s">
         <v>46</v>
       </c>
       <c r="B49" s="11" t="s">
@@ -13382,7 +13379,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="114" t="s">
+      <c r="A50" s="113" t="s">
         <v>47</v>
       </c>
       <c r="B50" s="11" t="s">
@@ -13396,7 +13393,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="114" t="s">
+      <c r="A51" s="113" t="s">
         <v>48</v>
       </c>
       <c r="B51" s="11" t="s">
@@ -13410,7 +13407,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="114" t="s">
+      <c r="A52" s="113" t="s">
         <v>49</v>
       </c>
       <c r="B52" s="11" t="s">
@@ -13682,7 +13679,7 @@
       <c r="B73" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="C73" s="123" t="s">
+      <c r="C73" s="128" t="s">
         <v>427</v>
       </c>
       <c r="D73" s="52" t="s">
@@ -13696,7 +13693,7 @@
       <c r="B74" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="C74" s="124"/>
+      <c r="C74" s="129"/>
       <c r="D74" s="52" t="s">
         <v>185</v>
       </c>
@@ -13756,7 +13753,7 @@
     <row r="79" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A79" s="58"/>
       <c r="B79" s="18"/>
-      <c r="C79" s="102"/>
+      <c r="C79" s="74"/>
       <c r="D79" s="49"/>
     </row>
     <row r="80" spans="1:4" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -13951,7 +13948,7 @@
       <c r="B96" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="C96" s="125" t="s">
+      <c r="C96" s="123" t="s">
         <v>273</v>
       </c>
       <c r="D96" s="53" t="s">
@@ -13965,7 +13962,7 @@
       <c r="B97" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="C97" s="126"/>
+      <c r="C97" s="124"/>
       <c r="D97" s="53" t="s">
         <v>175</v>
       </c>
@@ -13980,7 +13977,7 @@
       <c r="A99" s="94" t="s">
         <v>126</v>
       </c>
-      <c r="B99" s="108" t="s">
+      <c r="B99" s="107" t="s">
         <v>118</v>
       </c>
       <c r="C99" s="33"/>
@@ -14177,7 +14174,7 @@
       <c r="A116" s="98" t="s">
         <v>123</v>
       </c>
-      <c r="B116" s="109" t="s">
+      <c r="B116" s="108" t="s">
         <v>127</v>
       </c>
       <c r="C116" s="96"/>
@@ -14228,117 +14225,117 @@
       </c>
     </row>
     <row r="121" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="104"/>
+      <c r="A121" s="103"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
-      <c r="D121" s="103"/>
+      <c r="D121" s="102"/>
     </row>
     <row r="122" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="104"/>
+      <c r="A122" s="103"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
-      <c r="D122" s="103"/>
+      <c r="D122" s="102"/>
     </row>
     <row r="123" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="104"/>
+      <c r="A123" s="103"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
-      <c r="D123" s="103"/>
+      <c r="D123" s="102"/>
     </row>
     <row r="124" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="104"/>
+      <c r="A124" s="103"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
-      <c r="D124" s="103"/>
+      <c r="D124" s="102"/>
     </row>
     <row r="125" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A125" s="104"/>
+      <c r="A125" s="103"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
-      <c r="D125" s="103"/>
+      <c r="D125" s="102"/>
     </row>
     <row r="126" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="104"/>
+      <c r="A126" s="103"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
-      <c r="D126" s="103"/>
+      <c r="D126" s="102"/>
     </row>
     <row r="127" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="104"/>
+      <c r="A127" s="103"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
-      <c r="D127" s="103"/>
+      <c r="D127" s="102"/>
     </row>
     <row r="128" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="104"/>
+      <c r="A128" s="103"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
-      <c r="D128" s="103"/>
+      <c r="D128" s="102"/>
     </row>
     <row r="129" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="104"/>
+      <c r="A129" s="103"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
-      <c r="D129" s="103"/>
+      <c r="D129" s="102"/>
     </row>
     <row r="130" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="104"/>
+      <c r="A130" s="103"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
-      <c r="D130" s="103"/>
+      <c r="D130" s="102"/>
     </row>
     <row r="131" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="104"/>
+      <c r="A131" s="103"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
-      <c r="D131" s="103"/>
+      <c r="D131" s="102"/>
     </row>
     <row r="132" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="104"/>
+      <c r="A132" s="103"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
-      <c r="D132" s="103"/>
+      <c r="D132" s="102"/>
     </row>
     <row r="133" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="104"/>
+      <c r="A133" s="103"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
-      <c r="D133" s="103"/>
+      <c r="D133" s="102"/>
     </row>
     <row r="134" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="104"/>
+      <c r="A134" s="103"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
-      <c r="D134" s="103"/>
+      <c r="D134" s="102"/>
     </row>
     <row r="135" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="104"/>
+      <c r="A135" s="103"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
-      <c r="D135" s="103"/>
+      <c r="D135" s="102"/>
     </row>
     <row r="136" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="104"/>
+      <c r="A136" s="103"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
-      <c r="D136" s="103"/>
+      <c r="D136" s="102"/>
     </row>
     <row r="137" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="104"/>
+      <c r="A137" s="103"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
-      <c r="D137" s="103"/>
+      <c r="D137" s="102"/>
     </row>
     <row r="138" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="104"/>
+      <c r="A138" s="103"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
-      <c r="D138" s="103"/>
-    </row>
-    <row r="152" spans="2:19" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D138" s="102"/>
+    </row>
+    <row r="152" spans="2:19" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
-      <c r="D152" s="103"/>
+      <c r="D152" s="102"/>
       <c r="E152" s="17"/>
       <c r="F152" s="17"/>
       <c r="G152" s="17"/>
@@ -14355,10 +14352,10 @@
       <c r="R152" s="17"/>
       <c r="S152" s="17"/>
     </row>
-    <row r="153" spans="2:19" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:19" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
-      <c r="D153" s="103"/>
+      <c r="D153" s="102"/>
       <c r="E153" s="17"/>
       <c r="F153" s="17"/>
       <c r="G153" s="17"/>
@@ -14375,10 +14372,10 @@
       <c r="R153" s="17"/>
       <c r="S153" s="17"/>
     </row>
-    <row r="154" spans="2:19" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:19" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
-      <c r="D154" s="103"/>
+      <c r="D154" s="102"/>
       <c r="E154" s="17"/>
       <c r="F154" s="17"/>
       <c r="G154" s="17"/>
@@ -14395,10 +14392,10 @@
       <c r="R154" s="17"/>
       <c r="S154" s="17"/>
     </row>
-    <row r="155" spans="2:19" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:19" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
-      <c r="D155" s="103"/>
+      <c r="D155" s="102"/>
       <c r="E155" s="17"/>
       <c r="F155" s="17"/>
       <c r="G155" s="17"/>
@@ -14415,10 +14412,10 @@
       <c r="R155" s="17"/>
       <c r="S155" s="17"/>
     </row>
-    <row r="156" spans="2:19" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:19" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
-      <c r="D156" s="103"/>
+      <c r="D156" s="102"/>
       <c r="E156" s="17"/>
       <c r="F156" s="17"/>
       <c r="G156" s="17"/>
@@ -14435,10 +14432,10 @@
       <c r="R156" s="17"/>
       <c r="S156" s="17"/>
     </row>
-    <row r="157" spans="2:19" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:19" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
-      <c r="D157" s="103"/>
+      <c r="D157" s="102"/>
       <c r="E157" s="17"/>
       <c r="F157" s="17"/>
       <c r="G157" s="17"/>
@@ -14455,10 +14452,10 @@
       <c r="R157" s="17"/>
       <c r="S157" s="17"/>
     </row>
-    <row r="158" spans="2:19" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:19" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
-      <c r="D158" s="103"/>
+      <c r="D158" s="102"/>
       <c r="E158" s="17"/>
       <c r="F158" s="17"/>
       <c r="G158" s="17"/>
@@ -14475,10 +14472,10 @@
       <c r="R158" s="17"/>
       <c r="S158" s="17"/>
     </row>
-    <row r="159" spans="2:19" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:19" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
-      <c r="D159" s="103"/>
+      <c r="D159" s="102"/>
       <c r="E159" s="17"/>
       <c r="F159" s="17"/>
       <c r="G159" s="17"/>
@@ -14497,16 +14494,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C6:C9"/>
     <mergeCell ref="C96:C97"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C73:C74"/>
     <mergeCell ref="C32:C33"/>
     <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C6:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14523,20 +14520,20 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.26953125" style="104" customWidth="1"/>
+    <col min="1" max="1" width="6.26953125" style="103" customWidth="1"/>
     <col min="2" max="2" width="62.7265625" style="1" customWidth="1"/>
     <col min="3" max="3" width="82.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.26953125" style="103" customWidth="1"/>
+    <col min="4" max="4" width="5.26953125" style="102" customWidth="1"/>
     <col min="5" max="16384" width="11.453125" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="18" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="122" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="58"/>
@@ -14585,7 +14582,7 @@
       <c r="B6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="127" t="s">
+      <c r="C6" s="119" t="s">
         <v>329</v>
       </c>
       <c r="D6" s="50" t="s">
@@ -14599,7 +14596,7 @@
       <c r="B7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="128"/>
+      <c r="C7" s="120"/>
       <c r="D7" s="50" t="s">
         <v>169</v>
       </c>
@@ -14611,7 +14608,7 @@
       <c r="B8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="128"/>
+      <c r="C8" s="120"/>
       <c r="D8" s="50" t="s">
         <v>169</v>
       </c>
@@ -14623,7 +14620,7 @@
       <c r="B9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="129"/>
+      <c r="C9" s="121"/>
       <c r="D9" s="50" t="s">
         <v>169</v>
       </c>
@@ -14645,7 +14642,7 @@
       <c r="B11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="127" t="s">
+      <c r="C11" s="119" t="s">
         <v>330</v>
       </c>
       <c r="D11" s="50" t="s">
@@ -14659,7 +14656,7 @@
       <c r="B12" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="C12" s="129"/>
+      <c r="C12" s="121"/>
       <c r="D12" s="50"/>
     </row>
     <row r="13" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
@@ -14693,7 +14690,7 @@
       <c r="B15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="127" t="s">
+      <c r="C15" s="119" t="s">
         <v>331</v>
       </c>
       <c r="D15" s="50" t="s">
@@ -14707,7 +14704,7 @@
       <c r="B16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C16" s="128"/>
+      <c r="C16" s="120"/>
       <c r="D16" s="50" t="s">
         <v>181</v>
       </c>
@@ -14719,7 +14716,7 @@
       <c r="B17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="128"/>
+      <c r="C17" s="120"/>
       <c r="D17" s="50" t="s">
         <v>169</v>
       </c>
@@ -14731,13 +14728,13 @@
       <c r="B18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="129"/>
+      <c r="C18" s="121"/>
       <c r="D18" s="50" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
-      <c r="A19" s="113" t="s">
+      <c r="A19" s="112" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="10" t="s">
@@ -14751,7 +14748,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="113" t="s">
+      <c r="A20" s="112" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="10" t="s">
@@ -14765,7 +14762,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
-      <c r="A21" s="113" t="s">
+      <c r="A21" s="112" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="10" t="s">
@@ -14779,7 +14776,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A22" s="113" t="s">
+      <c r="A22" s="112" t="s">
         <v>15</v>
       </c>
       <c r="B22" s="10" t="s">
@@ -14793,7 +14790,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="113" t="s">
+      <c r="A23" s="112" t="s">
         <v>16</v>
       </c>
       <c r="B23" s="10" t="s">
@@ -14823,7 +14820,7 @@
       <c r="B25" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C25" s="127" t="s">
+      <c r="C25" s="119" t="s">
         <v>339</v>
       </c>
       <c r="D25" s="50" t="s">
@@ -14837,7 +14834,7 @@
       <c r="B26" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C26" s="128"/>
+      <c r="C26" s="120"/>
       <c r="D26" s="50" t="s">
         <v>181</v>
       </c>
@@ -14849,7 +14846,7 @@
       <c r="B27" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C27" s="128"/>
+      <c r="C27" s="120"/>
       <c r="D27" s="50" t="s">
         <v>181</v>
       </c>
@@ -14861,7 +14858,7 @@
       <c r="B28" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C28" s="129"/>
+      <c r="C28" s="121"/>
       <c r="D28" s="50" t="s">
         <v>181</v>
       </c>
@@ -14899,7 +14896,7 @@
       <c r="B32" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C32" s="120" t="s">
+      <c r="C32" s="125" t="s">
         <v>205</v>
       </c>
       <c r="D32" s="51" t="s">
@@ -14913,7 +14910,7 @@
       <c r="B33" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C33" s="121"/>
+      <c r="C33" s="126"/>
       <c r="D33" s="51" t="s">
         <v>181</v>
       </c>
@@ -14925,7 +14922,7 @@
       <c r="B34" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C34" s="121"/>
+      <c r="C34" s="126"/>
       <c r="D34" s="51" t="s">
         <v>181</v>
       </c>
@@ -14937,7 +14934,7 @@
       <c r="B35" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="C35" s="122"/>
+      <c r="C35" s="127"/>
       <c r="D35" s="51" t="s">
         <v>181</v>
       </c>
@@ -14973,7 +14970,7 @@
       <c r="B38" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C38" s="120" t="s">
+      <c r="C38" s="125" t="s">
         <v>343</v>
       </c>
       <c r="D38" s="51" t="s">
@@ -14987,7 +14984,7 @@
       <c r="B39" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C39" s="122"/>
+      <c r="C39" s="127"/>
       <c r="D39" s="51" t="s">
         <v>185</v>
       </c>
@@ -15063,7 +15060,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" s="18" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="114" t="s">
+      <c r="A45" s="113" t="s">
         <v>42</v>
       </c>
       <c r="B45" s="11" t="s">
@@ -15077,13 +15074,13 @@
       </c>
     </row>
     <row r="46" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="114" t="s">
+      <c r="A46" s="113" t="s">
         <v>43</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C46" s="120" t="s">
+      <c r="C46" s="125" t="s">
         <v>413</v>
       </c>
       <c r="D46" s="51" t="s">
@@ -15091,19 +15088,19 @@
       </c>
     </row>
     <row r="47" spans="1:4" s="18" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="114" t="s">
+      <c r="A47" s="113" t="s">
         <v>44</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="C47" s="122"/>
+      <c r="C47" s="127"/>
       <c r="D47" s="51" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:4" s="18" customFormat="1" ht="84" x14ac:dyDescent="0.35">
-      <c r="A48" s="114" t="s">
+      <c r="A48" s="113" t="s">
         <v>45</v>
       </c>
       <c r="B48" s="11" t="s">
@@ -15117,7 +15114,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" s="18" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="114" t="s">
+      <c r="A49" s="113" t="s">
         <v>46</v>
       </c>
       <c r="B49" s="11" t="s">
@@ -15131,7 +15128,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="114" t="s">
+      <c r="A50" s="113" t="s">
         <v>47</v>
       </c>
       <c r="B50" s="11" t="s">
@@ -15145,7 +15142,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="114" t="s">
+      <c r="A51" s="113" t="s">
         <v>48</v>
       </c>
       <c r="B51" s="11" t="s">
@@ -15417,7 +15414,7 @@
       <c r="B72" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="C72" s="123" t="s">
+      <c r="C72" s="128" t="s">
         <v>427</v>
       </c>
       <c r="D72" s="52" t="s">
@@ -15431,7 +15428,7 @@
       <c r="B73" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="C73" s="124"/>
+      <c r="C73" s="129"/>
       <c r="D73" s="52" t="s">
         <v>185</v>
       </c>
@@ -15491,7 +15488,7 @@
     <row r="78" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A78" s="58"/>
       <c r="B78" s="18"/>
-      <c r="C78" s="102"/>
+      <c r="C78" s="74"/>
       <c r="D78" s="49"/>
     </row>
     <row r="79" spans="1:4" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -15561,7 +15558,7 @@
       <c r="D84" s="49"/>
     </row>
     <row r="85" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A85" s="118" t="s">
+      <c r="A85" s="117" t="s">
         <v>83</v>
       </c>
       <c r="B85" s="13" t="s">
@@ -15573,7 +15570,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="118" t="s">
+      <c r="A86" s="117" t="s">
         <v>84</v>
       </c>
       <c r="B86" s="13" t="s">
@@ -15585,7 +15582,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="118" t="s">
+      <c r="A87" s="117" t="s">
         <v>85</v>
       </c>
       <c r="B87" s="13" t="s">
@@ -15597,7 +15594,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="118" t="s">
+      <c r="A88" s="117" t="s">
         <v>86</v>
       </c>
       <c r="B88" s="13" t="s">
@@ -15662,7 +15659,7 @@
       <c r="B93" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="C93" s="125" t="s">
+      <c r="C93" s="123" t="s">
         <v>273</v>
       </c>
       <c r="D93" s="53" t="s">
@@ -15676,7 +15673,7 @@
       <c r="B94" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="C94" s="126"/>
+      <c r="C94" s="124"/>
       <c r="D94" s="53" t="s">
         <v>434</v>
       </c>
@@ -15691,7 +15688,7 @@
       <c r="A96" s="94" t="s">
         <v>126</v>
       </c>
-      <c r="B96" s="108" t="s">
+      <c r="B96" s="107" t="s">
         <v>118</v>
       </c>
       <c r="C96" s="33"/>
@@ -15851,7 +15848,7 @@
       </c>
     </row>
     <row r="110" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A110" s="119" t="s">
+      <c r="A110" s="118" t="s">
         <v>98</v>
       </c>
       <c r="B110" s="14" t="s">
@@ -15865,185 +15862,185 @@
       </c>
     </row>
     <row r="111" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A111" s="104"/>
+      <c r="A111" s="103"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
-      <c r="D111" s="103"/>
+      <c r="D111" s="102"/>
     </row>
     <row r="112" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="104"/>
+      <c r="A112" s="103"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
-      <c r="D112" s="103"/>
+      <c r="D112" s="102"/>
     </row>
     <row r="113" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="104"/>
+      <c r="A113" s="103"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
-      <c r="D113" s="103"/>
+      <c r="D113" s="102"/>
     </row>
     <row r="114" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="104"/>
+      <c r="A114" s="103"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
-      <c r="D114" s="103"/>
+      <c r="D114" s="102"/>
     </row>
     <row r="115" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="104"/>
+      <c r="A115" s="103"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
-      <c r="D115" s="103"/>
+      <c r="D115" s="102"/>
     </row>
     <row r="116" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="104"/>
+      <c r="A116" s="103"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
-      <c r="D116" s="103"/>
+      <c r="D116" s="102"/>
     </row>
     <row r="117" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="104"/>
+      <c r="A117" s="103"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
-      <c r="D117" s="103"/>
+      <c r="D117" s="102"/>
     </row>
     <row r="118" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="104"/>
+      <c r="A118" s="103"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
-      <c r="D118" s="103"/>
+      <c r="D118" s="102"/>
     </row>
     <row r="119" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="104"/>
+      <c r="A119" s="103"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
-      <c r="D119" s="103"/>
+      <c r="D119" s="102"/>
     </row>
     <row r="120" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="104"/>
+      <c r="A120" s="103"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
-      <c r="D120" s="103"/>
+      <c r="D120" s="102"/>
     </row>
     <row r="121" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="104"/>
+      <c r="A121" s="103"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
-      <c r="D121" s="103"/>
+      <c r="D121" s="102"/>
     </row>
     <row r="122" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="104"/>
+      <c r="A122" s="103"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
-      <c r="D122" s="103"/>
+      <c r="D122" s="102"/>
     </row>
     <row r="123" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="104"/>
+      <c r="A123" s="103"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
-      <c r="D123" s="103"/>
+      <c r="D123" s="102"/>
     </row>
     <row r="124" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="104"/>
+      <c r="A124" s="103"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
-      <c r="D124" s="103"/>
+      <c r="D124" s="102"/>
     </row>
     <row r="125" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A125" s="104"/>
+      <c r="A125" s="103"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
-      <c r="D125" s="103"/>
+      <c r="D125" s="102"/>
     </row>
     <row r="126" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="104"/>
+      <c r="A126" s="103"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
-      <c r="D126" s="103"/>
+      <c r="D126" s="102"/>
     </row>
     <row r="127" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="104"/>
+      <c r="A127" s="103"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
-      <c r="D127" s="103"/>
+      <c r="D127" s="102"/>
     </row>
     <row r="128" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="104"/>
+      <c r="A128" s="103"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
-      <c r="D128" s="103"/>
+      <c r="D128" s="102"/>
     </row>
     <row r="129" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="104"/>
+      <c r="A129" s="103"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
-      <c r="D129" s="103"/>
+      <c r="D129" s="102"/>
     </row>
     <row r="130" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="104"/>
+      <c r="A130" s="103"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
-      <c r="D130" s="103"/>
+      <c r="D130" s="102"/>
     </row>
     <row r="131" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="104"/>
+      <c r="A131" s="103"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
-      <c r="D131" s="103"/>
+      <c r="D131" s="102"/>
     </row>
     <row r="132" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="104"/>
+      <c r="A132" s="103"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
-      <c r="D132" s="103"/>
+      <c r="D132" s="102"/>
     </row>
     <row r="133" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="104"/>
+      <c r="A133" s="103"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
-      <c r="D133" s="103"/>
+      <c r="D133" s="102"/>
     </row>
     <row r="134" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="104"/>
+      <c r="A134" s="103"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
-      <c r="D134" s="103"/>
+      <c r="D134" s="102"/>
     </row>
     <row r="135" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="104"/>
+      <c r="A135" s="103"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
-      <c r="D135" s="103"/>
+      <c r="D135" s="102"/>
     </row>
     <row r="136" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="104"/>
+      <c r="A136" s="103"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
-      <c r="D136" s="103"/>
+      <c r="D136" s="102"/>
     </row>
     <row r="137" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="104"/>
+      <c r="A137" s="103"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
-      <c r="D137" s="103"/>
+      <c r="D137" s="102"/>
     </row>
     <row r="138" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="104"/>
+      <c r="A138" s="103"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
-      <c r="D138" s="103"/>
+      <c r="D138" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C6:C9"/>
     <mergeCell ref="C93:C94"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C72:C73"/>
     <mergeCell ref="C32:C35"/>
     <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C6:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
